--- a/rlang/uber-profit-loss.xlsx
+++ b/rlang/uber-profit-loss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleet\src\org\essays\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleet\src\ridehail\rlang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB20D75-FB08-46BC-9E16-CB71A657F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE078644-A88F-4D7C-92B5-5AF37D74D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{57121A93-DE6B-494A-9DED-4B862E3AC3F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57121A93-DE6B-494A-9DED-4B862E3AC3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="1" r:id="rId1"/>
@@ -2515,7 +2515,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{82200E4A-E82C-4274-9E48-1F87C10FBE87}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2526,7 +2526,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="25896794" cy="18769853"/>
+    <xdr:ext cx="8659091" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2854,26 +2854,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D3D3FC-8B99-4752-A7B2-3B559B0FE7B5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="20" customWidth="1"/>
-    <col min="5" max="6" width="18.04296875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
-    <col min="8" max="10" width="14.1328125" customWidth="1"/>
-    <col min="11" max="13" width="14.1328125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="105.26953125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="114.58984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="20" customWidth="1"/>
+    <col min="5" max="6" width="18" style="20" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="13" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="105.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="114.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42005</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>EDATE(A2,3)</f>
         <v>42095</v>
@@ -2959,7 +2959,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A24" si="1">EDATE(A3,3)</f>
         <v>42186</v>
@@ -2979,7 +2979,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>42278</v>
@@ -3008,7 +3008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>42370</v>
@@ -3031,7 +3031,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>42461</v>
@@ -3052,7 +3052,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>42552</v>
@@ -3073,7 +3073,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>42644</v>
@@ -3099,7 +3099,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>42736</v>
@@ -3131,7 +3131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>42826</v>
@@ -3161,7 +3161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>42917</v>
@@ -3193,7 +3193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>43009</v>
@@ -3233,7 +3233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>43101</v>
@@ -3273,7 +3273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>43191</v>
@@ -3310,7 +3310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>43282</v>
@@ -3347,7 +3347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>43374</v>
@@ -3389,7 +3389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>43466</v>
@@ -3426,7 +3426,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>43556</v>
@@ -3466,7 +3466,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>43647</v>
@@ -3503,7 +3503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>43739</v>
@@ -3545,7 +3545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>43831</v>
@@ -3580,11 +3580,11 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>43922</v>
@@ -3623,7 +3623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>44013</v>
@@ -3662,7 +3662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44105</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44197</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44287</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44378</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44470</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44562</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44652</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>2022-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44743</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>2022-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44835</v>
       </c>
@@ -3958,9 +3958,10 @@
     <hyperlink ref="N26" r:id="rId19" xr:uid="{757DB89D-456E-4553-BF88-440865D84FEF}"/>
     <hyperlink ref="N29" r:id="rId20" xr:uid="{B79A578C-9558-49CA-9095-698179928FCB}"/>
     <hyperlink ref="O30" r:id="rId21" xr:uid="{C705DCCF-249A-49FC-A1B0-052F4469FFE9}"/>
+    <hyperlink ref="O22" r:id="rId22" xr:uid="{9DDCE714-50C1-4F1F-80A8-95D19971AAA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -3972,26 +3973,26 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.40625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42552</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>2016-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" ref="A15:A30" si="1">EDATE(A14,3)</f>
         <v>42644</v>
@@ -4102,7 +4103,7 @@
         <v>2016-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>42736</v>
@@ -4115,7 +4116,7 @@
         <v>6.9359999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>42826</v>
@@ -4128,7 +4129,7 @@
         <v>8.0719999999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>42917</v>
@@ -4141,7 +4142,7 @@
         <v>9.0239999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>43009</v>
@@ -4154,7 +4155,7 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>43101</v>
@@ -4167,7 +4168,7 @@
         <v>10.853</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>43191</v>
@@ -4180,7 +4181,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>43282</v>
@@ -4193,7 +4194,7 @@
         <v>12.599</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>43374</v>
@@ -4206,7 +4207,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>43466</v>
@@ -4216,7 +4217,7 @@
         <v>2019-1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>43556</v>
@@ -4226,7 +4227,7 @@
         <v>2019-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>43647</v>
@@ -4236,7 +4237,7 @@
         <v>2019-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>43739</v>
@@ -4246,7 +4247,7 @@
         <v>2019-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="1"/>
         <v>43831</v>
@@ -4256,7 +4257,7 @@
         <v>2020-1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>43922</v>
@@ -4266,7 +4267,7 @@
         <v>2020-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>44013</v>
@@ -4276,7 +4277,7 @@
         <v>2020-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44105</v>
       </c>

--- a/rlang/uber-profit-loss.xlsx
+++ b/rlang/uber-profit-loss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleet\src\ridehail\rlang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE078644-A88F-4D7C-92B5-5AF37D74D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14FFD4C-0A1C-40D3-B526-55A3F17FA2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57121A93-DE6B-494A-9DED-4B862E3AC3F6}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{57121A93-DE6B-494A-9DED-4B862E3AC3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,21 @@
     <author>Tom Slee</author>
   </authors>
   <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00ED708A-B528-4BAA-8BE6-36F3A28E3AC3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tom Slee: Mobility revenue/ gross bookings
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E10" authorId="0" shapeId="0" xr:uid="{68FB9135-3929-4CDF-8568-AC77D5861D64}">
       <text>
         <r>
@@ -252,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Profit / Loss ($B)</t>
   </si>
@@ -447,6 +462,9 @@
   </si>
   <si>
     <t>Computed take rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://investor.uber.com/news-events/news/press-release-details/2022/Uber-Announces-Results-for-Second-Quarter-2022/default.aspx </t>
   </si>
 </sst>
 </file>
@@ -567,13 +585,12 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -596,7 +613,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
@@ -689,16 +706,13 @@
           </a:p>
           <a:p>
             <a:pPr algn="l">
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="85000"/>
                     <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -801,6 +815,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1006,6 +1021,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5529999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,6 +1260,9 @@
                 <c:pt idx="28">
                   <c:v>-5.9</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.601</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1271,6 +1292,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1448,6 +1470,9 @@
                 <c:pt idx="28">
                   <c:v>1.72</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8720000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1475,8 +1500,11 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1490,7 +1518,9 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1564,6 +1594,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.36399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,6 +1619,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1661,6 +1695,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.71299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,7 +1921,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.12314694302918018"/>
           <c:y val="7.3818977495967164E-2"/>
-          <c:w val="8.0207650414178683E-2"/>
+          <c:w val="0.24732048733962947"/>
           <c:h val="0.16795619017367905"/>
         </c:manualLayout>
       </c:layout>
@@ -2515,7 +2552,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{82200E4A-E82C-4274-9E48-1F87C10FBE87}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2526,7 +2563,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659091" cy="6286500"/>
+    <xdr:ext cx="2887870" cy="2095500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2854,18 +2891,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D3D3FC-8B99-4752-A7B2-3B559B0FE7B5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="20" customWidth="1"/>
-    <col min="5" max="6" width="18" style="20" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="19" customWidth="1"/>
+    <col min="5" max="6" width="18" style="19" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="13" width="14.140625" hidden="1" customWidth="1"/>
@@ -2873,50 +2910,50 @@
     <col min="15" max="15" width="114.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2928,16 +2965,16 @@
         <f>CONCATENATE(YEAR(A2), "-", ROUNDUP(MONTH(A2)/3,0))</f>
         <v>2015-1</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>0.25</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>-0.2</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -2948,16 +2985,16 @@
         <f t="shared" ref="B3:B33" si="0">CONCATENATE(YEAR(A3), "-", ROUNDUP(MONTH(A3)/3,0))</f>
         <v>2015-2</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>0.35</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -2968,16 +3005,16 @@
         <f t="shared" si="0"/>
         <v>2015-3</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>0.7</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>-0.65</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -2988,16 +3025,16 @@
         <f t="shared" si="0"/>
         <v>2015-4</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>0.8</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
       <c r="K5">
         <v>1999</v>
       </c>
@@ -3017,16 +3054,16 @@
         <f t="shared" si="0"/>
         <v>2016-1</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>0.95</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>-0.5</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
       <c r="M6" t="s">
         <v>62</v>
       </c>
@@ -3040,17 +3077,17 @@
         <f t="shared" si="0"/>
         <v>2016-2</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>-0.75</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="25"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -3061,17 +3098,17 @@
         <f t="shared" si="0"/>
         <v>2016-3</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>1.7</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>-0.9</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="25"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3082,17 +3119,17 @@
         <f t="shared" si="0"/>
         <v>2016-4</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>2.8</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>-0.99099999999999999</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="25">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24">
         <v>2000</v>
       </c>
       <c r="L9">
@@ -3108,19 +3145,19 @@
         <f t="shared" si="0"/>
         <v>2017-1</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>3.4</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>-0.70799999999999996</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>-0.65700000000000003</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="25"/>
+      <c r="F10" s="23"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
       <c r="M10" t="s">
         <v>1</v>
       </c>
@@ -3140,23 +3177,23 @@
         <f t="shared" si="0"/>
         <v>2017-2</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>1.75</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>-0.64500000000000002</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f>-0.688</f>
         <v>-0.68799999999999994</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="23"/>
       <c r="H11">
         <v>0.88900000000000001</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
       <c r="N11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3170,25 +3207,25 @@
         <f t="shared" si="0"/>
         <v>2017-3</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>-1.5</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>-0.73599999999999999</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="23"/>
       <c r="G12">
         <v>-0.74299999999999999</v>
       </c>
       <c r="H12">
         <v>0.98499999999999999</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
       <c r="N12" s="3" t="s">
         <v>14</v>
       </c>
@@ -3202,22 +3239,22 @@
         <f t="shared" si="0"/>
         <v>2017-4</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>-0.56100000000000005</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="23"/>
       <c r="H13">
         <v>1.0880000000000001</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="26">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="25">
         <v>2001</v>
       </c>
       <c r="L13">
@@ -3242,16 +3279,16 @@
         <f t="shared" si="0"/>
         <v>2018-1</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>2.5</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>-0.47799999999999998</v>
       </c>
       <c r="G14">
@@ -3260,12 +3297,12 @@
       <c r="H14">
         <v>1.1359999999999999</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="26">
         <f>2584/10893</f>
         <v>0.23721656109428074</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="24"/>
       <c r="M14" t="s">
         <v>22</v>
       </c>
@@ -3282,16 +3319,16 @@
         <f t="shared" si="0"/>
         <v>2018-2</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>2.7</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>-0.63800000000000001</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <v>-0.73899999999999999</v>
       </c>
       <c r="G15">
@@ -3300,12 +3337,12 @@
       <c r="H15">
         <v>1.242</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <f>2768/12012</f>
         <v>0.23043623043623043</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="24"/>
       <c r="N15" s="3" t="s">
         <v>2</v>
       </c>
@@ -3319,16 +3356,16 @@
         <f t="shared" si="0"/>
         <v>2018-3</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>2.95</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>-0.93899999999999995</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>-0.45800000000000002</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>-0.76300000000000001</v>
       </c>
       <c r="G16">
@@ -3337,12 +3374,12 @@
       <c r="H16">
         <v>1.3480000000000001</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <f>2425/10488</f>
         <v>0.23121662852784133</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="24"/>
       <c r="N16" s="3" t="s">
         <v>41</v>
       </c>
@@ -3356,16 +3393,16 @@
         <f t="shared" si="0"/>
         <v>2018-4</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>3</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>-0.37</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>-0.81699999999999995</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>-1.0529999999999999</v>
       </c>
       <c r="G17">
@@ -3374,12 +3411,12 @@
       <c r="H17">
         <v>1.4930000000000001</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <f>2400/11479</f>
         <v>0.2090774457705375</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="26">
+      <c r="J17" s="26"/>
+      <c r="K17" s="25">
         <v>2002</v>
       </c>
       <c r="L17">
@@ -3398,27 +3435,27 @@
         <f t="shared" si="0"/>
         <v>2019-1</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>3.1</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>-1.01</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>-0.86899999999999999</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <v>-1.034</v>
       </c>
       <c r="H18">
         <v>1.55</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="26">
         <f>3099/14649</f>
         <v>0.21155027646938357</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="24"/>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
@@ -3435,27 +3472,27 @@
         <f t="shared" si="0"/>
         <v>2019-2</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>3.17</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>-5.2</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>-0.65600000000000003</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>-5.4850000000000003</v>
       </c>
       <c r="H19">
         <v>1.677</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <f>3166/15756</f>
         <v>0.20093932470170095</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="24"/>
       <c r="M19" s="1" t="s">
         <v>59</v>
       </c>
@@ -3475,27 +3512,27 @@
         <f t="shared" si="0"/>
         <v>2019-3</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>3.81</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>-0.58499999999999996</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>-1.1060000000000001</v>
       </c>
       <c r="H20">
         <v>1.77</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <f>2895/12554</f>
         <v>0.23060379162020073</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24"/>
       <c r="N20" s="3" t="s">
         <v>6</v>
       </c>
@@ -3512,27 +3549,27 @@
         <f t="shared" si="0"/>
         <v>2019-4</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>4.04</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>-0.61499999999999999</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>-0.97099999999999997</v>
       </c>
       <c r="H21">
         <v>1.907</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <f>3056/13512</f>
         <v>0.22616933096506808</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="26">
+      <c r="J21" s="26"/>
+      <c r="K21" s="25">
         <v>2003</v>
       </c>
       <c r="L21">
@@ -3554,29 +3591,29 @@
         <f t="shared" si="0"/>
         <v>2020-1</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>2.4670000000000001</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>-2.9359999999999999</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>-0.61199999999999999</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>-1.2629999999999999</v>
       </c>
       <c r="H22">
         <v>1.6579999999999999</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <f>2467/10874</f>
         <v>0.22687143645392679</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="26">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K22" s="25"/>
+      <c r="K22" s="24"/>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
@@ -3593,29 +3630,29 @@
         <f t="shared" si="0"/>
         <v>2020-2</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>0.78700000000000003</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <v>-1.7749999999999999</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>-0.83699999999999997</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <v>-1.607</v>
       </c>
       <c r="H23">
         <v>0.73699999999999999</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <f>787/3046</f>
         <v>0.25837163493105714</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="26">
         <v>0.25800000000000001</v>
       </c>
-      <c r="K23" s="25"/>
+      <c r="K23" s="24"/>
       <c r="N23" s="3" t="s">
         <v>9</v>
       </c>
@@ -3632,29 +3669,29 @@
         <f t="shared" si="0"/>
         <v>2020-3</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>1.3640000000000001</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>-0.625</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>-1.1160000000000001</v>
       </c>
       <c r="H24">
         <v>1.1839999999999999</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <f>1364/5905</f>
         <v>0.23099068585944116</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="26">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K24" s="25"/>
+      <c r="K24" s="24"/>
       <c r="N24" s="3" t="s">
         <v>10</v>
       </c>
@@ -3670,29 +3707,29 @@
         <f t="shared" si="0"/>
         <v>2020-4</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>1.4710000000000001</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>-0.96799999999999997</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>-0.45400000000000001</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="23">
         <v>-0.877</v>
       </c>
       <c r="H25">
         <v>1.4430000000000001</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <f>1.471/6.789</f>
         <v>0.21667403152157905</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="26">
         <v>0.217</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="25">
         <v>2004</v>
       </c>
       <c r="L25">
@@ -3713,30 +3750,30 @@
         <f t="shared" si="0"/>
         <v>2021-1</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>0.85299999999999998</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>-0.108</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>-0.35899999999999999</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>-1.524</v>
       </c>
       <c r="H26">
         <v>1.4470000000000001</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <f>853/6773</f>
         <v>0.12594123726561346</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="26">
         <v>0.126</v>
       </c>
-      <c r="K26" s="25"/>
-      <c r="M26" s="15" t="s">
+      <c r="K26" s="24"/>
+      <c r="M26" s="14" t="s">
         <v>37</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -3754,29 +3791,29 @@
         <f t="shared" si="0"/>
         <v>2021-2</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>1.6180000000000001</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="23">
         <v>1.1439999999999999</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <v>-0.50900000000000001</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="23">
         <v>-1.1879999999999999</v>
       </c>
       <c r="H27">
         <v>1.5109999999999999</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <f>1618/8640</f>
         <v>0.18726851851851853</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="26">
         <v>0.187</v>
       </c>
-      <c r="K27" s="25"/>
+      <c r="K27" s="24"/>
       <c r="M27" t="s">
         <v>39</v>
       </c>
@@ -3795,29 +3832,29 @@
         <f t="shared" si="0"/>
         <v>2021-3</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>2.2050000000000001</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>-2.4</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>-0.57199999999999995</v>
       </c>
       <c r="H28">
         <v>1.641</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="26">
         <f>2205/9883</f>
         <v>0.22311039158150359</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="26">
         <v>0.223</v>
       </c>
-      <c r="K28" s="25"/>
+      <c r="K28" s="24"/>
       <c r="M28" t="s">
         <v>40</v>
       </c>
@@ -3836,29 +3873,29 @@
         <f t="shared" si="0"/>
         <v>2021-4</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>2.278</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="23">
         <v>0.89</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="23">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="23">
         <v>-0.55000000000000004</v>
       </c>
       <c r="H29">
         <v>1.77</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="26">
         <f>2.278/11.34</f>
         <v>0.20088183421516756</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="26">
         <v>0.20100000000000001</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="25">
         <v>2005</v>
       </c>
       <c r="L29">
@@ -3879,26 +3916,26 @@
         <f t="shared" si="0"/>
         <v>2022-1</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>2.52</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="23">
         <v>-5.9</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>-0.48199999999999998</v>
       </c>
       <c r="H30">
         <v>1.72</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="26">
         <f>2518/10723</f>
         <v>0.23482234449314557</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="26">
         <v>0.23499999999999999</v>
       </c>
       <c r="N30" t="s">
@@ -3915,6 +3952,31 @@
       <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2022-2</v>
+      </c>
+      <c r="C31" s="21">
+        <v>3.5529999999999999</v>
+      </c>
+      <c r="D31" s="23">
+        <v>-2.601</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F31" s="23">
+        <v>-0.71299999999999997</v>
+      </c>
+      <c r="H31">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="I31" s="26">
+        <f>3553/13364</f>
+        <v>0.26586351391798863</v>
+      </c>
+      <c r="J31" s="26">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3959,9 +4021,10 @@
     <hyperlink ref="N29" r:id="rId20" xr:uid="{B79A578C-9558-49CA-9095-698179928FCB}"/>
     <hyperlink ref="O30" r:id="rId21" xr:uid="{C705DCCF-249A-49FC-A1B0-052F4469FFE9}"/>
     <hyperlink ref="O22" r:id="rId22" xr:uid="{9DDCE714-50C1-4F1F-80A8-95D19971AAA5}"/>
+    <hyperlink ref="O31" r:id="rId23" xr:uid="{75AD9778-FABD-4C70-A8A8-C8FFA47D8D2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -3976,97 +4039,97 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>1.75</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7">
+      <c r="D7" s="8"/>
+      <c r="E7" s="6">
         <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>7.5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>1.5</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>3.4</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>6.9</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.8</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>2.9</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>991</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>5.4</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
         <v>1.66</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>934</v>
       </c>
     </row>
@@ -4074,13 +4137,13 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4112,7 +4175,7 @@
         <f t="shared" si="0"/>
         <v>2017-1</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>6.9359999999999999</v>
       </c>
     </row>
@@ -4125,7 +4188,7 @@
         <f t="shared" si="0"/>
         <v>2017-2</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>8.0719999999999992</v>
       </c>
     </row>
@@ -4138,7 +4201,7 @@
         <f t="shared" si="0"/>
         <v>2017-3</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>9.0239999999999991</v>
       </c>
     </row>
@@ -4151,7 +4214,7 @@
         <f t="shared" si="0"/>
         <v>2017-4</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>10.31</v>
       </c>
     </row>
@@ -4164,7 +4227,7 @@
         <f t="shared" si="0"/>
         <v>2018-1</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>10.853</v>
       </c>
     </row>
@@ -4177,7 +4240,7 @@
         <f t="shared" si="0"/>
         <v>2018-2</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>11.94</v>
       </c>
     </row>
@@ -4190,7 +4253,7 @@
         <f t="shared" si="0"/>
         <v>2018-3</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>12.599</v>
       </c>
     </row>
@@ -4203,7 +4266,7 @@
         <f t="shared" si="0"/>
         <v>2018-4</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>14.04</v>
       </c>
     </row>

--- a/rlang/uber-profit-loss.xlsx
+++ b/rlang/uber-profit-loss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleet\src\ridehail\rlang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14FFD4C-0A1C-40D3-B526-55A3F17FA2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8B359F-6EA4-447A-9A1A-250C015672A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{57121A93-DE6B-494A-9DED-4B862E3AC3F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{57121A93-DE6B-494A-9DED-4B862E3AC3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,31 @@
     <author>Tom Slee</author>
   </authors>
   <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D2E3238C-CBE3-4AA4-9977-7244B3F92257}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tom Slee: consolidated statement of operatinos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+From the Condensed Consolidated Statement of Operations in Supplementary material</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00ED708A-B528-4BAA-8BE6-36F3A28E3AC3}">
       <text>
         <r>
@@ -2552,7 +2577,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{82200E4A-E82C-4274-9E48-1F87C10FBE87}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2563,7 +2588,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="2887870" cy="2095500"/>
+    <xdr:ext cx="8667750" cy="6291263"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2891,9 +2916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D3D3FC-8B99-4752-A7B2-3B559B0FE7B5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rlang/uber-profit-loss.xlsx
+++ b/rlang/uber-profit-loss.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleet\src\ridehail\rlang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tom\src\ridehail\rlang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8B359F-6EA4-447A-9A1A-250C015672A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A2634B-A3F5-49AC-A8C9-14F4263E5E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{57121A93-DE6B-494A-9DED-4B862E3AC3F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{57121A93-DE6B-494A-9DED-4B862E3AC3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="1" r:id="rId1"/>
     <sheet name="P&amp;L Chart" sheetId="3" r:id="rId2"/>
-    <sheet name="Gross &amp; Net" sheetId="4" r:id="rId3"/>
+    <sheet name="Revenue Split Chart" sheetId="6" r:id="rId3"/>
+    <sheet name="Gross &amp; Net" sheetId="4" r:id="rId4"/>
+    <sheet name="Utilization" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +35,7 @@
     <author>Tom Slee</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D2E3238C-CBE3-4AA4-9977-7244B3F92257}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EDC89232-F776-4A72-AB56-11B972F7CE0F}">
       <text>
         <r>
           <rPr>
@@ -49,7 +45,55 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Tom Slee: consolidated statement of operatinos
+          <t>Tom Slee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Net Income</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{10981CFF-1235-4721-887A-3EE841585576}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Slee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Corporate, not segment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D2E3238C-CBE3-4AA4-9977-7244B3F92257}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tom Slee: consolidated statement of operations
 </t>
         </r>
         <r>
@@ -60,11 +104,36 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-From the Condensed Consolidated Statement of Operations in Supplementary material</t>
+"Income from operations" from the Condensed Consolidated Statement of Operations in Supplementary material</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00ED708A-B528-4BAA-8BE6-36F3A28E3AC3}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{098806B9-D8A7-45D4-B078-FAFC7B0A839F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Slee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Includes mobility and delivery
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00ED708A-B528-4BAA-8BE6-36F3A28E3AC3}">
       <text>
         <r>
           <rPr>
@@ -79,7 +148,56 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{68FB9135-3929-4CDF-8568-AC77D5861D64}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{699CEA52-FDEC-4D3E-A5CC-6FA82F14CA98}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tom Slee
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ReTake rate renamed to Revenue Margin in 2023-03.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{30D7A135-33CF-4503-9226-169161B7B410}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Slee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Per trip</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{68FB9135-3929-4CDF-8568-AC77D5861D64}">
       <text>
         <r>
           <rPr>
@@ -104,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{59C88C40-4744-4731-ACA0-0A63BC467F25}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{59C88C40-4744-4731-ACA0-0A63BC467F25}">
       <text>
         <r>
           <rPr>
@@ -129,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{977C9C0B-87E3-4784-954D-8D4F23032F17}">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{977C9C0B-87E3-4784-954D-8D4F23032F17}">
       <text>
         <r>
           <rPr>
@@ -153,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{6D3450B4-D35A-4620-9A20-37DC7417252E}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{6D3450B4-D35A-4620-9A20-37DC7417252E}">
       <text>
         <r>
           <rPr>
@@ -177,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{2489FC53-86C5-4523-A76B-2E6E061B4F45}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{2489FC53-86C5-4523-A76B-2E6E061B4F45}">
       <text>
         <r>
           <rPr>
@@ -202,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{9A307DA0-78A3-4C97-86DC-AFB715F0EE6E}">
+    <comment ref="R14" authorId="0" shapeId="0" xr:uid="{9A307DA0-78A3-4C97-86DC-AFB715F0EE6E}">
       <text>
         <r>
           <rPr>
@@ -228,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{204A3EEC-7ED0-4092-A5AB-745F8F418AF4}">
+    <comment ref="K36" authorId="0" shapeId="0" xr:uid="{C67C06C4-DC49-4717-BB90-C78ADF0FB7D2}">
       <text>
         <r>
           <rPr>
@@ -248,8 +366,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Only overall numbers reported. It will be almost all rides at this point though.
-</t>
+Take rate renamed to "revenue margin" in Q3 2023.
+"Mobility Revenue Margin in Q3 2023 was negatively impacted by business model changes in some countries that classified certain sales and marketing costs as contra revenue by 90 bps." (90bps = 0.90%)</t>
         </r>
       </text>
     </comment>
@@ -292,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>Profit / Loss ($B)</t>
   </si>
@@ -483,28 +601,92 @@
     <t>Amazon total losses $2.8B 1995-2001</t>
   </si>
   <si>
-    <t>Mobility take rate</t>
-  </si>
-  <si>
     <t>Computed take rate</t>
   </si>
   <si>
     <t xml:space="preserve">https://investor.uber.com/news-events/news/press-release-details/2022/Uber-Announces-Results-for-Second-Quarter-2022/default.aspx </t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2022/Uber-Announces-Results-for-Third-Quarter-2022/default.aspx</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2023/Uber-Announces-Results-for-Fourth-Quarter-and-Full-Year-2022/default.aspx</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2023/Uber-Announces-Results-for-Second-Quarter-2023/default.aspx</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2023/Uber-Announces-Results-for-First-Quarter-2023/default.aspx</t>
+  </si>
+  <si>
+    <t>Mobility driver payments</t>
+  </si>
+  <si>
+    <t>Gross Bookings (Mobility) ($B)</t>
+  </si>
+  <si>
+    <t>Uber revenue per trip</t>
+  </si>
+  <si>
+    <t>Driver revenue per trip</t>
+  </si>
+  <si>
+    <t>Bookings per trip</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2023/Uber-Announces-Results-for-Third-Quarter-2023/default.aspx</t>
+  </si>
+  <si>
+    <t>Mobility take rate / revenue margin</t>
+  </si>
+  <si>
+    <t>P3 (time)</t>
+  </si>
+  <si>
+    <t>P3 (distance)</t>
+  </si>
+  <si>
+    <t>Speed (P1) / Speed (P3)</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2024/Uber-Announces-Results-for-Fourth-Quarter-and-Full-Year-2023/default.aspx</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2024/Uber-Announces-Results-for-First-Quarter-2024/default.aspx</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2024/Uber-Announces-Results-for-Second-Quarter-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://investor.uber.com/financials/default.aspx </t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2024/Uber-Announces-Results-for-Third-Quarter-2024/default.aspx</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2025/Uber-Announces-Results-for-Fourth-Quarter-and-Full-Year-2024/default.aspx</t>
+  </si>
+  <si>
+    <t>Profit jump comes from one-time tax valuation changes</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2025/Uber-Announces-Results-for-First-Quarter-2025/default.aspx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,8 +755,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,8 +782,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -602,15 +796,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -643,20 +853,27 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="5"/>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
@@ -749,7 +966,28 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>(Profit/loss and Adjusted EBITDA includes both ridehail and delivery)</a:t>
+              <a:t>(Trips, Profit/loss and Adjusted EBITDA include</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-CA" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>both ridehail and delivery)</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA" sz="1100">
               <a:solidFill>
@@ -766,8 +1004,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3956015261999466"/>
-          <c:y val="6.901636049823015E-2"/>
+          <c:x val="0.3926612855709285"/>
+          <c:y val="7.3056708820488342E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -826,7 +1064,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P&amp;L'!$C$1</c:f>
+              <c:f>'P&amp;L'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -864,9 +1102,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'P&amp;L'!$B$2:$B$29</c:f>
+              <c:f>'P&amp;L'!$B$2:$B$50</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2015-1</c:v>
                 </c:pt>
@@ -950,16 +1188,55 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'P&amp;L'!$C$2:$C$32</c:f>
+              <c:f>'P&amp;L'!$D$2:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -1049,6 +1326,39 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.5529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.633</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.4089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.4960000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,11 +1375,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P&amp;L'!$D$1</c:f>
+              <c:f>'P&amp;L'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Profit / Loss ($B)</c:v>
+                  <c:v> Profit / Loss ($B) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1085,7 +1395,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
@@ -1102,9 +1412,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'P&amp;L'!$B$2:$B$29</c:f>
+              <c:f>'P&amp;L'!$B$2:$B$50</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2015-1</c:v>
                 </c:pt>
@@ -1188,16 +1498,55 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'P&amp;L'!$D$2:$D$32</c:f>
+              <c:f>'P&amp;L'!$E$2:$E$50</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>-0.2</c:v>
                 </c:pt>
@@ -1287,6 +1636,39 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-2.601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.206</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.141</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.157</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.429</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.883</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,7 +1685,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P&amp;L'!$H$1</c:f>
+              <c:f>'P&amp;L'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1339,9 +1721,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'P&amp;L'!$B$2:$B$29</c:f>
+              <c:f>'P&amp;L'!$B$2:$B$50</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2015-1</c:v>
                 </c:pt>
@@ -1425,16 +1807,55 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'P&amp;L'!$H$2:$H$32</c:f>
+              <c:f>'P&amp;L'!$I$2:$I$50</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="49"/>
                 <c:pt idx="9">
                   <c:v>0.88900000000000001</c:v>
                 </c:pt>
@@ -1497,6 +1918,39 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.8720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.282</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,11 +1967,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P&amp;L'!$E$1</c:f>
+              <c:f>'P&amp;L'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Adjusted EBITDA ($B)</c:v>
+                  <c:v> Adjusted EBITDA ($B) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1551,12 +2005,143 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L'!$B$2:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2015-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'P&amp;L'!$E$2:$E$32</c:f>
+              <c:f>'P&amp;L'!$F$2:$F$50</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="49"/>
                 <c:pt idx="8">
                   <c:v>-0.65700000000000003</c:v>
                 </c:pt>
@@ -1622,6 +2207,39 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8680000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,12 +2282,143 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L'!$B$2:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2015-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'P&amp;L'!$F$2:$F$32</c:f>
+              <c:f>'P&amp;L'!$G$2:$G$50</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="49"/>
                 <c:pt idx="12">
                   <c:v>-0.47799999999999998</c:v>
                 </c:pt>
@@ -1723,6 +2472,39 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.495</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,7 +2799,1927 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1800" b="1"/>
+              <a:t>Revenue split between Uber and drivers (global averages)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P&amp;L'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bookings per trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L'!$B$14:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2021-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L'!$M$14:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>9.5862676056338039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6698872785829302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7804154302670616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6885465505693222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3845161290322574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2677400119260582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0926553672316386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0854745673833248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5585042219541627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1329715061058341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9873310810810816</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7047817047817047</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6807187284035932</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7180675049636012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0225472273004259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.406779661016949</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2343023255813961</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1388888888888893</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.006656426011264</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0788973384030411</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.0532015065913365</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3304119193689754</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3342892257271606</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4144559784698192</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2589424572317265</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4321880650994574</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.242068965517241</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.43089960886571</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.9769433465085635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-205F-4D60-8AE9-F40A9569D3A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P&amp;L'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uber revenue per trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L'!$B$14:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2021-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L'!$N$14:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2.200704225352113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1739130434782608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1884272997032639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0093770931011385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8902802623732853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.152542372881356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.118510749868904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4879372738238845</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0678426051560379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1520270270270272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0194040194040195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5894955079474774</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0708140304434153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3436928702010968</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2870056497175142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4651162790697674</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8979700854700856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9569892473118278</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9657794676806082</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0386064030131825</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1446099912357584</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0774272839000409</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1287966166858898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1901244167962672</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2169981916817356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.252607561929596</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.13965744400527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-205F-4D60-8AE9-F40A9569D3A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P&amp;L'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Driver revenue per trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L'!$B$14:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2021-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L'!$O$14:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>7.3855633802816909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4959742351046685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5919881305637977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6791694574681832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3845161290322574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3774597495527727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9401129943502822</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9669638175144213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0705669481302778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0651289009497962</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8353040540540544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6853776853776852</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0912232204561159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6472534745201859</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6788543570993291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1197740112994348</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7691860465116287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2409188034188032</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0496671786994352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1131178707224318</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.014595103578154</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1858019281332171</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.2568619418271192</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2856593617839298</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0688180404354597</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2151898734177218</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0320689655172419</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1782920469361144</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.837285902503293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-205F-4D60-8AE9-F40A9569D3A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="343848464"/>
+        <c:axId val="382204800"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Take Rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L'!$K$14:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.2295684113865932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22481265611990009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28127383676582762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26134680721317188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27083697361523679</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26009189366590085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30348892783176679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29899348727057429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-205F-4D60-8AE9-F40A9569D3A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="748609231"/>
+        <c:axId val="848750991"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="343848464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382204800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="382204800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Revenue per trip ($US)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343848464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="848750991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Uber take rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748609231"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="748609231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="848750991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42587811078589005"/>
+          <c:y val="0.12353600129880672"/>
+          <c:w val="0.22366646054059997"/>
+          <c:h val="0.1390538606898786"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Utilization rate </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1200"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>by time and distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14964566929133857"/>
+          <c:y val="7.407407407407407E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14445603674540683"/>
+          <c:y val="6.0601851851851872E-2"/>
+          <c:w val="0.80283573928258967"/>
+          <c:h val="0.73382728200641578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Utilization!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P3 (distance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Utilization!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Utilization!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25188916876574308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43103448275862072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56497175141242939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.668896321070234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75187969924812026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81967213114754101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87609511889862335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92378752886836024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96463022508038587</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD31-4016-A82A-CF4A2336A5FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1953587311"/>
+        <c:axId val="2045181631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1953587311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Utilization rate by time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2045181631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2045181631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Utilization rate by distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953587311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2573,11 +5275,1030 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{82200E4A-E82C-4274-9E48-1F87C10FBE87}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2588,7 +6309,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6291263"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2614,6 +6335,80 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="609599" y="190500"/>
+    <xdr:ext cx="9096375" cy="5543550"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07CC7ED-9A21-4C89-AA02-185B35CD303A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBEA696-1138-604F-1F85-80767BBE4EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2914,75 +6709,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D3D3FC-8B99-4752-A7B2-3B559B0FE7B5}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="19" customWidth="1"/>
-    <col min="5" max="6" width="18" style="19" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="13" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="105.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="114.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="18" style="21" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="30" customWidth="1"/>
+    <col min="13" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="105.28515625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="114.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42005</v>
       </c>
@@ -2990,38 +6805,34 @@
         <f>CONCATENATE(YEAR(A2), "-", ROUNDUP(MONTH(A2)/3,0))</f>
         <v>2015-1</v>
       </c>
-      <c r="C2" s="21">
+      <c r="D2" s="21">
         <v>0.25</v>
       </c>
-      <c r="D2" s="23">
+      <c r="E2" s="21">
         <v>-0.2</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>EDATE(A2,3)</f>
         <v>42095</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f t="shared" ref="B3:B33" si="0">CONCATENATE(YEAR(A3), "-", ROUNDUP(MONTH(A3)/3,0))</f>
+        <f t="shared" ref="B3:B42" si="0">CONCATENATE(YEAR(A3), "-", ROUNDUP(MONTH(A3)/3,0))</f>
         <v>2015-2</v>
       </c>
-      <c r="C3" s="21">
+      <c r="D3" s="21">
         <v>0.35</v>
       </c>
-      <c r="D3" s="23">
+      <c r="E3" s="21">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="30"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A24" si="1">EDATE(A3,3)</f>
         <v>42186</v>
@@ -3030,18 +6841,16 @@
         <f t="shared" si="0"/>
         <v>2015-3</v>
       </c>
-      <c r="C4" s="21">
+      <c r="D4" s="21">
         <v>0.7</v>
       </c>
-      <c r="D4" s="23">
+      <c r="E4" s="21">
         <v>-0.65</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>42278</v>
@@ -3050,27 +6859,25 @@
         <f t="shared" si="0"/>
         <v>2015-4</v>
       </c>
-      <c r="C5" s="21">
+      <c r="D5" s="21">
         <v>0.8</v>
       </c>
-      <c r="D5" s="23">
+      <c r="E5" s="21">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5">
+      <c r="J5" s="20"/>
+      <c r="K5" s="30"/>
+      <c r="P5">
         <v>1999</v>
       </c>
-      <c r="L5">
+      <c r="Q5">
         <v>-0.7</v>
       </c>
-      <c r="M5" t="s">
+      <c r="R5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>42370</v>
@@ -3079,21 +6886,19 @@
         <f t="shared" si="0"/>
         <v>2016-1</v>
       </c>
-      <c r="C6" s="21">
+      <c r="D6" s="21">
         <v>0.95</v>
       </c>
-      <c r="D6" s="23">
+      <c r="E6" s="21">
         <v>-0.5</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="M6" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="30"/>
+      <c r="R6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>42461</v>
@@ -3102,19 +6907,17 @@
         <f t="shared" si="0"/>
         <v>2016-2</v>
       </c>
-      <c r="C7" s="21">
+      <c r="D7" s="21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="23">
+      <c r="E7" s="21">
         <v>-0.75</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="24"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="30"/>
+      <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>42552</v>
@@ -3123,19 +6926,17 @@
         <f t="shared" si="0"/>
         <v>2016-3</v>
       </c>
-      <c r="C8" s="21">
+      <c r="D8" s="21">
         <v>1.7</v>
       </c>
-      <c r="D8" s="23">
+      <c r="E8" s="21">
         <v>-0.9</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="24"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="30"/>
+      <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>42644</v>
@@ -3144,24 +6945,22 @@
         <f t="shared" si="0"/>
         <v>2016-4</v>
       </c>
-      <c r="C9" s="21">
+      <c r="D9" s="21">
         <v>2.8</v>
       </c>
-      <c r="D9" s="23">
+      <c r="E9" s="21">
         <v>-0.99099999999999999</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="24">
+      <c r="J9" s="20"/>
+      <c r="K9" s="30"/>
+      <c r="P9" s="18">
         <v>2000</v>
       </c>
-      <c r="L9">
+      <c r="Q9">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>42736</v>
@@ -3170,30 +6969,29 @@
         <f t="shared" si="0"/>
         <v>2017-1</v>
       </c>
-      <c r="C10" s="21">
+      <c r="D10" s="21">
         <v>3.4</v>
       </c>
-      <c r="D10" s="23">
+      <c r="E10" s="21">
         <v>-0.70799999999999996</v>
       </c>
-      <c r="E10" s="23">
+      <c r="F10" s="21">
         <v>-0.65700000000000003</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="24"/>
-      <c r="M10" t="s">
+      <c r="J10" s="20"/>
+      <c r="K10" s="30"/>
+      <c r="P10" s="18"/>
+      <c r="R10" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P10" t="s">
+      <c r="U10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>42826</v>
@@ -3202,28 +7000,27 @@
         <f t="shared" si="0"/>
         <v>2017-2</v>
       </c>
-      <c r="C11" s="21">
+      <c r="D11" s="21">
         <v>1.75</v>
       </c>
-      <c r="D11" s="23">
+      <c r="E11" s="21">
         <v>-0.64500000000000002</v>
       </c>
-      <c r="E11" s="23">
+      <c r="F11" s="21">
         <f>-0.688</f>
         <v>-0.68799999999999994</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="H11">
+      <c r="I11" s="23">
         <v>0.88900000000000001</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="24"/>
-      <c r="N11" s="3" t="s">
+      <c r="J11" s="20"/>
+      <c r="K11" s="30"/>
+      <c r="P11" s="18"/>
+      <c r="S11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>42917</v>
@@ -3232,30 +7029,29 @@
         <f t="shared" si="0"/>
         <v>2017-3</v>
       </c>
-      <c r="C12" s="21">
+      <c r="D12" s="21">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D12" s="23">
+      <c r="E12" s="21">
         <v>-1.5</v>
       </c>
-      <c r="E12" s="23">
+      <c r="F12" s="21">
         <v>-0.73599999999999999</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12">
+      <c r="H12">
         <v>-0.74299999999999999</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="23">
         <v>0.98499999999999999</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="24"/>
-      <c r="N12" s="3" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="30"/>
+      <c r="P12" s="18"/>
+      <c r="S12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>43009</v>
@@ -3264,38 +7060,37 @@
         <f t="shared" si="0"/>
         <v>2017-4</v>
       </c>
-      <c r="C13" s="21">
+      <c r="D13" s="21">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D13" s="23">
+      <c r="E13" s="21">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E13" s="23">
+      <c r="F13" s="21">
         <v>-0.56100000000000005</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="H13">
+      <c r="I13" s="23">
         <v>1.0880000000000001</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25">
+      <c r="J13" s="20"/>
+      <c r="K13" s="30"/>
+      <c r="P13" s="19">
         <v>2001</v>
       </c>
-      <c r="L13">
+      <c r="Q13">
         <v>-0.5</v>
       </c>
-      <c r="M13" t="s">
+      <c r="R13" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O13" t="s">
+      <c r="T13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>43101</v>
@@ -3304,38 +7099,60 @@
         <f t="shared" si="0"/>
         <v>2018-1</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="25">
+        <v>10.89</v>
+      </c>
+      <c r="D14" s="21">
         <v>2.5</v>
       </c>
-      <c r="D14" s="23">
+      <c r="E14" s="21">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="E14" s="23">
+      <c r="F14" s="21">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="F14" s="23">
+      <c r="G14" s="21">
         <v>-0.47799999999999998</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="23">
         <v>1.1359999999999999</v>
       </c>
-      <c r="I14" s="26">
-        <f>2584/10893</f>
-        <v>0.23721656109428074</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="24"/>
-      <c r="M14" t="s">
+      <c r="J14" s="20">
+        <f t="shared" ref="J14:J16" si="2">D14/C14</f>
+        <v>0.2295684113865932</v>
+      </c>
+      <c r="K14" s="30">
+        <f>D14/C14</f>
+        <v>0.2295684113865932</v>
+      </c>
+      <c r="L14" s="30">
+        <f t="shared" ref="L14:L42" si="3">(C14-D14)/C14</f>
+        <v>0.77043158861340677</v>
+      </c>
+      <c r="M14" s="25">
+        <f t="shared" ref="M14:M38" si="4">C14/I14</f>
+        <v>9.5862676056338039</v>
+      </c>
+      <c r="N14" s="25">
+        <f>J14*M14</f>
+        <v>2.200704225352113</v>
+      </c>
+      <c r="O14" s="25">
+        <f>L14*M14</f>
+        <v>7.3855633802816909</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="R14" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>43191</v>
@@ -3344,35 +7161,57 @@
         <f t="shared" si="0"/>
         <v>2018-2</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="25">
+        <v>12.01</v>
+      </c>
+      <c r="D15" s="21">
         <v>2.7</v>
       </c>
-      <c r="D15" s="23">
+      <c r="E15" s="21">
         <v>-0.63800000000000001</v>
       </c>
-      <c r="E15" s="23">
+      <c r="F15" s="21">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="F15" s="23">
+      <c r="G15" s="21">
         <v>-0.73899999999999999</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.69499999999999995</v>
       </c>
-      <c r="H15">
+      <c r="I15" s="23">
         <v>1.242</v>
       </c>
-      <c r="I15" s="26">
-        <f>2768/12012</f>
-        <v>0.23043623043623043</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="24"/>
-      <c r="N15" s="3" t="s">
+      <c r="J15" s="20">
+        <f t="shared" si="2"/>
+        <v>0.22481265611990009</v>
+      </c>
+      <c r="K15" s="30">
+        <f t="shared" ref="K15:K21" si="5">D15/C15</f>
+        <v>0.22481265611990009</v>
+      </c>
+      <c r="L15" s="30">
+        <f t="shared" si="3"/>
+        <v>0.7751873438800998</v>
+      </c>
+      <c r="M15" s="25">
+        <f t="shared" si="4"/>
+        <v>9.6698872785829302</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" ref="N15:N38" si="6">J15*M15</f>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="O15" s="25">
+        <f t="shared" ref="O15:O38" si="7">L15*M15</f>
+        <v>7.4959742351046685</v>
+      </c>
+      <c r="P15" s="18"/>
+      <c r="S15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>43282</v>
@@ -3381,35 +7220,57 @@
         <f t="shared" si="0"/>
         <v>2018-3</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="25">
+        <v>10.488</v>
+      </c>
+      <c r="D16" s="21">
         <v>2.95</v>
       </c>
-      <c r="D16" s="23">
+      <c r="E16" s="21">
         <v>-0.93899999999999995</v>
       </c>
-      <c r="E16" s="23">
+      <c r="F16" s="21">
         <v>-0.45800000000000002</v>
       </c>
-      <c r="F16" s="23">
+      <c r="G16" s="21">
         <v>-0.76300000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.93899999999999995</v>
       </c>
-      <c r="H16">
+      <c r="I16" s="23">
         <v>1.3480000000000001</v>
       </c>
-      <c r="I16" s="26">
-        <f>2425/10488</f>
-        <v>0.23121662852784133</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24"/>
-      <c r="N16" s="3" t="s">
+      <c r="J16" s="20">
+        <f t="shared" si="2"/>
+        <v>0.28127383676582762</v>
+      </c>
+      <c r="K16" s="30">
+        <f t="shared" si="5"/>
+        <v>0.28127383676582762</v>
+      </c>
+      <c r="L16" s="30">
+        <f t="shared" si="3"/>
+        <v>0.71872616323417238</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" si="4"/>
+        <v>7.7804154302670616</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" si="6"/>
+        <v>2.1884272997032639</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" si="7"/>
+        <v>5.5919881305637977</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="S16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>43374</v>
@@ -3418,40 +7279,62 @@
         <f t="shared" si="0"/>
         <v>2018-4</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="25">
+        <v>11.478999999999999</v>
+      </c>
+      <c r="D17" s="21">
         <v>3</v>
       </c>
-      <c r="D17" s="23">
+      <c r="E17" s="21">
         <v>-0.37</v>
       </c>
-      <c r="E17" s="23">
+      <c r="F17" s="21">
         <v>-0.81699999999999995</v>
       </c>
-      <c r="F17" s="23">
+      <c r="G17" s="21">
         <v>-1.0529999999999999</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.76800000000000002</v>
       </c>
-      <c r="H17">
+      <c r="I17" s="23">
         <v>1.4930000000000001</v>
       </c>
-      <c r="I17" s="26">
-        <f>2400/11479</f>
-        <v>0.2090774457705375</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="25">
+      <c r="J17" s="20">
+        <f t="shared" ref="J17" si="8">D17/C17</f>
+        <v>0.26134680721317188</v>
+      </c>
+      <c r="K17" s="30">
+        <f t="shared" si="5"/>
+        <v>0.26134680721317188</v>
+      </c>
+      <c r="L17" s="30">
+        <f t="shared" si="3"/>
+        <v>0.73865319278682806</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" si="4"/>
+        <v>7.6885465505693222</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" si="6"/>
+        <v>2.0093770931011385</v>
+      </c>
+      <c r="O17" s="25">
+        <f t="shared" si="7"/>
+        <v>5.6791694574681832</v>
+      </c>
+      <c r="P17" s="19">
         <v>2002</v>
       </c>
-      <c r="L17">
+      <c r="Q17">
         <v>-0.12</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>43466</v>
@@ -3460,35 +7343,57 @@
         <f t="shared" si="0"/>
         <v>2019-1</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="25">
+        <v>11.446</v>
+      </c>
+      <c r="D18" s="21">
         <v>3.1</v>
       </c>
-      <c r="D18" s="23">
+      <c r="E18" s="21">
         <v>-1.01</v>
       </c>
-      <c r="E18" s="23">
+      <c r="F18" s="21">
         <v>-0.86899999999999999</v>
       </c>
-      <c r="F18" s="23">
+      <c r="G18" s="21">
         <v>-1.034</v>
       </c>
-      <c r="H18">
+      <c r="I18" s="23">
         <v>1.55</v>
       </c>
-      <c r="I18" s="26">
-        <f>3099/14649</f>
-        <v>0.21155027646938357</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="24"/>
-      <c r="N18" s="3" t="s">
+      <c r="J18" s="20">
+        <f t="shared" ref="J18:J21" si="9">D18/C18</f>
+        <v>0.27083697361523679</v>
+      </c>
+      <c r="K18" s="30">
+        <f t="shared" si="5"/>
+        <v>0.27083697361523679</v>
+      </c>
+      <c r="L18" s="30">
+        <f t="shared" si="3"/>
+        <v>0.72916302638476327</v>
+      </c>
+      <c r="M18" s="25">
+        <f t="shared" si="4"/>
+        <v>7.3845161290322574</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O18" s="25">
+        <f t="shared" si="7"/>
+        <v>5.3845161290322574</v>
+      </c>
+      <c r="P18" s="18"/>
+      <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" t="s">
+      <c r="T18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>43556</v>
@@ -3497,38 +7402,60 @@
         <f t="shared" si="0"/>
         <v>2019-2</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="25">
+        <v>12.188000000000001</v>
+      </c>
+      <c r="D19" s="21">
         <v>3.17</v>
       </c>
-      <c r="D19" s="23">
+      <c r="E19" s="21">
         <v>-5.2</v>
       </c>
-      <c r="E19" s="23">
+      <c r="F19" s="21">
         <v>-0.65600000000000003</v>
       </c>
-      <c r="F19" s="23">
+      <c r="G19" s="21">
         <v>-5.4850000000000003</v>
       </c>
-      <c r="H19">
+      <c r="I19" s="23">
         <v>1.677</v>
       </c>
-      <c r="I19" s="26">
-        <f>3166/15756</f>
-        <v>0.20093932470170095</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="24"/>
-      <c r="M19" s="1" t="s">
+      <c r="J19" s="20">
+        <f t="shared" si="9"/>
+        <v>0.26009189366590085</v>
+      </c>
+      <c r="K19" s="30">
+        <f t="shared" si="5"/>
+        <v>0.26009189366590085</v>
+      </c>
+      <c r="L19" s="30">
+        <f t="shared" si="3"/>
+        <v>0.73990810633409909</v>
+      </c>
+      <c r="M19" s="25">
+        <f t="shared" si="4"/>
+        <v>7.2677400119260582</v>
+      </c>
+      <c r="N19" s="25">
+        <f t="shared" si="6"/>
+        <v>1.8902802623732853</v>
+      </c>
+      <c r="O19" s="25">
+        <f t="shared" si="7"/>
+        <v>5.3774597495527727</v>
+      </c>
+      <c r="P19" s="18"/>
+      <c r="R19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O19" t="s">
-        <v>49</v>
+      <c r="T19" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>43647</v>
@@ -3537,35 +7464,57 @@
         <f t="shared" si="0"/>
         <v>2019-3</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="25">
+        <v>12.554</v>
+      </c>
+      <c r="D20" s="21">
         <v>3.81</v>
       </c>
-      <c r="D20" s="23">
+      <c r="E20" s="21">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="E20" s="23">
+      <c r="F20" s="21">
         <v>-0.58499999999999996</v>
       </c>
-      <c r="F20" s="23">
+      <c r="G20" s="21">
         <v>-1.1060000000000001</v>
       </c>
-      <c r="H20">
+      <c r="I20" s="23">
         <v>1.77</v>
       </c>
-      <c r="I20" s="26">
-        <f>2895/12554</f>
-        <v>0.23060379162020073</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24"/>
-      <c r="N20" s="3" t="s">
+      <c r="J20" s="20">
+        <f t="shared" si="9"/>
+        <v>0.30348892783176679</v>
+      </c>
+      <c r="K20" s="30">
+        <f t="shared" si="5"/>
+        <v>0.30348892783176679</v>
+      </c>
+      <c r="L20" s="30">
+        <f t="shared" si="3"/>
+        <v>0.69651107216823316</v>
+      </c>
+      <c r="M20" s="25">
+        <f t="shared" si="4"/>
+        <v>7.0926553672316386</v>
+      </c>
+      <c r="N20" s="25">
+        <f t="shared" si="6"/>
+        <v>2.152542372881356</v>
+      </c>
+      <c r="O20" s="25">
+        <f t="shared" si="7"/>
+        <v>4.9401129943502822</v>
+      </c>
+      <c r="P20" s="18"/>
+      <c r="S20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O20" t="s">
+      <c r="T20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>43739</v>
@@ -3574,40 +7523,62 @@
         <f t="shared" si="0"/>
         <v>2019-4</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="25">
+        <v>13.512</v>
+      </c>
+      <c r="D21" s="21">
         <v>4.04</v>
       </c>
-      <c r="D21" s="23">
+      <c r="E21" s="21">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E21" s="23">
+      <c r="F21" s="21">
         <v>-0.61499999999999999</v>
       </c>
-      <c r="F21" s="23">
+      <c r="G21" s="21">
         <v>-0.97099999999999997</v>
       </c>
-      <c r="H21">
+      <c r="I21" s="23">
         <v>1.907</v>
       </c>
-      <c r="I21" s="26">
-        <f>3056/13512</f>
-        <v>0.22616933096506808</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25">
+      <c r="J21" s="20">
+        <f t="shared" si="9"/>
+        <v>0.29899348727057429</v>
+      </c>
+      <c r="K21" s="30">
+        <f t="shared" si="5"/>
+        <v>0.29899348727057429</v>
+      </c>
+      <c r="L21" s="30">
+        <f t="shared" si="3"/>
+        <v>0.70100651272942582</v>
+      </c>
+      <c r="M21" s="25">
+        <f t="shared" si="4"/>
+        <v>7.0854745673833248</v>
+      </c>
+      <c r="N21" s="25">
+        <f t="shared" si="6"/>
+        <v>2.118510749868904</v>
+      </c>
+      <c r="O21" s="25">
+        <f t="shared" si="7"/>
+        <v>4.9669638175144213</v>
+      </c>
+      <c r="P21" s="19">
         <v>2003</v>
       </c>
-      <c r="L21">
+      <c r="Q21">
         <v>0.125</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O21" t="s">
+      <c r="T21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>43831</v>
@@ -3616,37 +7587,56 @@
         <f t="shared" si="0"/>
         <v>2020-1</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="25">
+        <v>10.874000000000001</v>
+      </c>
+      <c r="D22" s="21">
         <v>2.4670000000000001</v>
       </c>
-      <c r="D22" s="23">
+      <c r="E22" s="21">
         <v>-2.9359999999999999</v>
       </c>
-      <c r="E22" s="23">
+      <c r="F22" s="21">
         <v>-0.61199999999999999</v>
       </c>
-      <c r="F22" s="23">
+      <c r="G22" s="21">
         <v>-1.2629999999999999</v>
       </c>
-      <c r="H22">
+      <c r="I22" s="23">
         <v>1.6579999999999999</v>
       </c>
-      <c r="I22" s="26">
-        <f>2467/10874</f>
+      <c r="J22" s="20">
+        <f t="shared" ref="J22:J34" si="10">D22/C22</f>
         <v>0.22687143645392679</v>
       </c>
-      <c r="J22" s="26">
+      <c r="K22" s="30">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="N22" s="3" t="s">
+      <c r="L22" s="30">
+        <f t="shared" si="3"/>
+        <v>0.77312856354607318</v>
+      </c>
+      <c r="M22" s="25">
+        <f t="shared" si="4"/>
+        <v>6.5585042219541627</v>
+      </c>
+      <c r="N22" s="25">
+        <f t="shared" si="6"/>
+        <v>1.4879372738238845</v>
+      </c>
+      <c r="O22" s="25">
+        <f t="shared" si="7"/>
+        <v>5.0705669481302778</v>
+      </c>
+      <c r="P22" s="18"/>
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>43922</v>
@@ -3655,37 +7645,56 @@
         <f t="shared" si="0"/>
         <v>2020-2</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="25">
+        <v>3.0459999999999998</v>
+      </c>
+      <c r="D23" s="21">
         <v>0.78700000000000003</v>
       </c>
-      <c r="D23" s="23">
+      <c r="E23" s="21">
         <v>-1.7749999999999999</v>
       </c>
-      <c r="E23" s="23">
+      <c r="F23" s="21">
         <v>-0.83699999999999997</v>
       </c>
-      <c r="F23" s="23">
+      <c r="G23" s="21">
         <v>-1.607</v>
       </c>
-      <c r="H23">
+      <c r="I23" s="23">
         <v>0.73699999999999999</v>
       </c>
-      <c r="I23" s="26">
-        <f>787/3046</f>
+      <c r="J23" s="20">
+        <f t="shared" si="10"/>
         <v>0.25837163493105714</v>
       </c>
-      <c r="J23" s="26">
+      <c r="K23" s="30">
         <v>0.25800000000000001</v>
       </c>
-      <c r="K23" s="24"/>
-      <c r="N23" s="3" t="s">
+      <c r="L23" s="30">
+        <f t="shared" si="3"/>
+        <v>0.74162836506894292</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" si="4"/>
+        <v>4.1329715061058341</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" si="6"/>
+        <v>1.0678426051560379</v>
+      </c>
+      <c r="O23" s="25">
+        <f t="shared" si="7"/>
+        <v>3.0651289009497962</v>
+      </c>
+      <c r="P23" s="18"/>
+      <c r="S23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O23" t="s">
+      <c r="T23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>44013</v>
@@ -3694,37 +7703,56 @@
         <f t="shared" si="0"/>
         <v>2020-3</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="25">
+        <v>5.9050000000000002</v>
+      </c>
+      <c r="D24" s="21">
         <v>1.3640000000000001</v>
       </c>
-      <c r="D24" s="23">
+      <c r="E24" s="21">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="E24" s="23">
+      <c r="F24" s="21">
         <v>-0.625</v>
       </c>
-      <c r="F24" s="23">
+      <c r="G24" s="21">
         <v>-1.1160000000000001</v>
       </c>
-      <c r="H24">
+      <c r="I24" s="23">
         <v>1.1839999999999999</v>
       </c>
-      <c r="I24" s="26">
-        <f>1364/5905</f>
+      <c r="J24" s="20">
+        <f t="shared" si="10"/>
         <v>0.23099068585944116</v>
       </c>
-      <c r="J24" s="26">
+      <c r="K24" s="30">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K24" s="24"/>
-      <c r="N24" s="3" t="s">
+      <c r="L24" s="30">
+        <f t="shared" si="3"/>
+        <v>0.76900931414055884</v>
+      </c>
+      <c r="M24" s="25">
+        <f t="shared" si="4"/>
+        <v>4.9873310810810816</v>
+      </c>
+      <c r="N24" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1520270270270272</v>
+      </c>
+      <c r="O24" s="25">
+        <f t="shared" si="7"/>
+        <v>3.8353040540540544</v>
+      </c>
+      <c r="P24" s="18"/>
+      <c r="S24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O24" t="s">
+      <c r="T24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44105</v>
       </c>
@@ -3732,42 +7760,61 @@
         <f t="shared" si="0"/>
         <v>2020-4</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="25">
+        <v>6.7889999999999997</v>
+      </c>
+      <c r="D25" s="21">
         <v>1.4710000000000001</v>
       </c>
-      <c r="D25" s="23">
+      <c r="E25" s="21">
         <v>-0.96799999999999997</v>
       </c>
-      <c r="E25" s="23">
+      <c r="F25" s="21">
         <v>-0.45400000000000001</v>
       </c>
-      <c r="F25" s="23">
+      <c r="G25" s="21">
         <v>-0.877</v>
       </c>
-      <c r="H25">
+      <c r="I25" s="23">
         <v>1.4430000000000001</v>
       </c>
-      <c r="I25" s="26">
-        <f>1.471/6.789</f>
+      <c r="J25" s="20">
+        <f t="shared" si="10"/>
         <v>0.21667403152157905</v>
       </c>
-      <c r="J25" s="26">
+      <c r="K25" s="30">
         <v>0.217</v>
       </c>
-      <c r="K25" s="25">
+      <c r="L25" s="30">
+        <f t="shared" si="3"/>
+        <v>0.78332596847842095</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" si="4"/>
+        <v>4.7047817047817047</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" si="6"/>
+        <v>1.0194040194040195</v>
+      </c>
+      <c r="O25" s="25">
+        <f t="shared" si="7"/>
+        <v>3.6853776853776852</v>
+      </c>
+      <c r="P25" s="19">
         <v>2004</v>
       </c>
-      <c r="L25">
+      <c r="Q25">
         <v>0.58799999999999997</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O25" t="s">
+      <c r="T25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44197</v>
       </c>
@@ -3775,40 +7822,59 @@
         <f t="shared" si="0"/>
         <v>2021-1</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="25">
+        <v>6.7729999999999997</v>
+      </c>
+      <c r="D26" s="21">
         <v>0.85299999999999998</v>
       </c>
-      <c r="D26" s="23">
+      <c r="E26" s="21">
         <v>-0.108</v>
       </c>
-      <c r="E26" s="23">
+      <c r="F26" s="21">
         <v>-0.35899999999999999</v>
       </c>
-      <c r="F26" s="23">
+      <c r="G26" s="21">
         <v>-1.524</v>
       </c>
-      <c r="H26">
+      <c r="I26" s="23">
         <v>1.4470000000000001</v>
       </c>
-      <c r="I26" s="26">
-        <f>853/6773</f>
+      <c r="J26" s="20">
+        <f t="shared" si="10"/>
         <v>0.12594123726561346</v>
       </c>
-      <c r="J26" s="26">
+      <c r="K26" s="30">
         <v>0.126</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="M26" s="14" t="s">
+      <c r="L26" s="30">
+        <f t="shared" si="3"/>
+        <v>0.87405876273438654</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="4"/>
+        <v>4.6807187284035932</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" si="6"/>
+        <v>0.5894955079474774</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" si="7"/>
+        <v>4.0912232204561159</v>
+      </c>
+      <c r="P26" s="18"/>
+      <c r="R26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O26" t="s">
+      <c r="T26" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44287</v>
       </c>
@@ -3816,40 +7882,59 @@
         <f t="shared" si="0"/>
         <v>2021-2</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="25">
+        <v>8.64</v>
+      </c>
+      <c r="D27" s="21">
         <v>1.6180000000000001</v>
       </c>
-      <c r="D27" s="23">
+      <c r="E27" s="21">
         <v>1.1439999999999999</v>
       </c>
-      <c r="E27" s="23">
+      <c r="F27" s="21">
         <v>-0.50900000000000001</v>
       </c>
-      <c r="F27" s="23">
+      <c r="G27" s="21">
         <v>-1.1879999999999999</v>
       </c>
-      <c r="H27">
+      <c r="I27" s="23">
         <v>1.5109999999999999</v>
       </c>
-      <c r="I27" s="26">
-        <f>1618/8640</f>
+      <c r="J27" s="20">
+        <f t="shared" si="10"/>
         <v>0.18726851851851853</v>
       </c>
-      <c r="J27" s="26">
+      <c r="K27" s="30">
         <v>0.187</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="M27" t="s">
+      <c r="L27" s="30">
+        <f t="shared" si="3"/>
+        <v>0.81273148148148144</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" si="4"/>
+        <v>5.7180675049636012</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" si="6"/>
+        <v>1.0708140304434153</v>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" si="7"/>
+        <v>4.6472534745201859</v>
+      </c>
+      <c r="P27" s="18"/>
+      <c r="R27" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O27" t="s">
+      <c r="T27" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44378</v>
       </c>
@@ -3857,40 +7942,59 @@
         <f t="shared" si="0"/>
         <v>2021-3</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="25">
+        <v>9.8829999999999991</v>
+      </c>
+      <c r="D28" s="21">
         <v>2.2050000000000001</v>
       </c>
-      <c r="D28" s="23">
+      <c r="E28" s="21">
         <v>-2.4</v>
       </c>
-      <c r="E28" s="23">
+      <c r="F28" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F28" s="23">
+      <c r="G28" s="21">
         <v>-0.57199999999999995</v>
       </c>
-      <c r="H28">
+      <c r="I28" s="23">
         <v>1.641</v>
       </c>
-      <c r="I28" s="26">
-        <f>2205/9883</f>
-        <v>0.22311039158150359</v>
-      </c>
-      <c r="J28" s="26">
+      <c r="J28" s="20">
+        <f t="shared" si="10"/>
+        <v>0.22311039158150361</v>
+      </c>
+      <c r="K28" s="30">
         <v>0.223</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="M28" t="s">
+      <c r="L28" s="30">
+        <f t="shared" si="3"/>
+        <v>0.77688960841849641</v>
+      </c>
+      <c r="M28" s="25">
+        <f t="shared" si="4"/>
+        <v>6.0225472273004259</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" si="6"/>
+        <v>1.3436928702010968</v>
+      </c>
+      <c r="O28" s="25">
+        <f t="shared" si="7"/>
+        <v>4.6788543570993291</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="R28" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44470</v>
       </c>
@@ -3898,42 +8002,61 @@
         <f t="shared" si="0"/>
         <v>2021-4</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="25">
+        <v>11.34</v>
+      </c>
+      <c r="D29" s="21">
         <v>2.278</v>
       </c>
-      <c r="D29" s="23">
+      <c r="E29" s="21">
         <v>0.89</v>
       </c>
-      <c r="E29" s="23">
+      <c r="F29" s="21">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F29" s="23">
+      <c r="G29" s="21">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="H29">
+      <c r="I29" s="23">
         <v>1.77</v>
       </c>
-      <c r="I29" s="26">
-        <f>2.278/11.34</f>
+      <c r="J29" s="20">
+        <f t="shared" si="10"/>
         <v>0.20088183421516756</v>
       </c>
-      <c r="J29" s="26">
+      <c r="K29" s="30">
         <v>0.20100000000000001</v>
       </c>
-      <c r="K29" s="25">
+      <c r="L29" s="30">
+        <f t="shared" si="3"/>
+        <v>0.79911816578483241</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" si="4"/>
+        <v>6.406779661016949</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" si="6"/>
+        <v>1.2870056497175142</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" si="7"/>
+        <v>5.1197740112994348</v>
+      </c>
+      <c r="P29" s="19">
         <v>2005</v>
       </c>
-      <c r="L29">
+      <c r="Q29">
         <v>0.35899999999999999</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O29" t="s">
+      <c r="T29" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44562</v>
       </c>
@@ -3941,36 +8064,55 @@
         <f t="shared" si="0"/>
         <v>2022-1</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="25">
+        <v>10.723000000000001</v>
+      </c>
+      <c r="D30" s="21">
         <v>2.52</v>
       </c>
-      <c r="D30" s="23">
+      <c r="E30" s="21">
         <v>-5.9</v>
       </c>
-      <c r="E30" s="23">
+      <c r="F30" s="21">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F30" s="23">
+      <c r="G30" s="21">
         <v>-0.48199999999999998</v>
       </c>
-      <c r="H30">
+      <c r="I30" s="23">
         <v>1.72</v>
       </c>
-      <c r="I30" s="26">
-        <f>2518/10723</f>
-        <v>0.23482234449314557</v>
-      </c>
-      <c r="J30" s="26">
+      <c r="J30" s="20">
+        <f t="shared" si="10"/>
+        <v>0.23500885946097172</v>
+      </c>
+      <c r="K30" s="30">
         <v>0.23499999999999999</v>
       </c>
-      <c r="N30" t="s">
+      <c r="L30" s="30">
+        <f t="shared" si="3"/>
+        <v>0.76499114053902828</v>
+      </c>
+      <c r="M30" s="25">
+        <f t="shared" si="4"/>
+        <v>6.2343023255813961</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" si="6"/>
+        <v>1.4651162790697674</v>
+      </c>
+      <c r="O30" s="25">
+        <f t="shared" si="7"/>
+        <v>4.7691860465116287</v>
+      </c>
+      <c r="S30" t="s">
         <v>52</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44652</v>
       </c>
@@ -3978,33 +8120,52 @@
         <f t="shared" si="0"/>
         <v>2022-2</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="25">
+        <v>13.364000000000001</v>
+      </c>
+      <c r="D31" s="21">
         <v>3.5529999999999999</v>
       </c>
-      <c r="D31" s="23">
+      <c r="E31" s="21">
         <v>-2.601</v>
       </c>
-      <c r="E31" s="23">
+      <c r="F31" s="21">
         <v>0.36399999999999999</v>
       </c>
-      <c r="F31" s="23">
+      <c r="G31" s="21">
         <v>-0.71299999999999997</v>
       </c>
-      <c r="H31">
+      <c r="I31" s="23">
         <v>1.8720000000000001</v>
       </c>
-      <c r="I31" s="26">
-        <f>3553/13364</f>
+      <c r="J31" s="20">
+        <f t="shared" si="10"/>
         <v>0.26586351391798863</v>
       </c>
-      <c r="J31" s="26">
+      <c r="K31" s="30">
         <v>0.26600000000000001</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>65</v>
+      <c r="L31" s="30">
+        <f t="shared" si="3"/>
+        <v>0.73413648608201132</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" si="4"/>
+        <v>7.1388888888888893</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" si="6"/>
+        <v>1.8979700854700856</v>
+      </c>
+      <c r="O31" s="25">
+        <f t="shared" si="7"/>
+        <v>5.2409188034188032</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44743</v>
       </c>
@@ -4012,8 +8173,52 @@
         <f t="shared" si="0"/>
         <v>2022-3</v>
       </c>
+      <c r="C32" s="25">
+        <v>13.683999999999999</v>
+      </c>
+      <c r="D32" s="21">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="E32" s="21">
+        <v>-1.206</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G32" s="21">
+        <v>-0.495</v>
+      </c>
+      <c r="I32" s="23">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="J32" s="20">
+        <f t="shared" si="10"/>
+        <v>0.27930429698918446</v>
+      </c>
+      <c r="K32" s="31">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L32" s="30">
+        <f t="shared" si="3"/>
+        <v>0.72069570301081542</v>
+      </c>
+      <c r="M32" s="25">
+        <f t="shared" si="4"/>
+        <v>7.006656426011264</v>
+      </c>
+      <c r="N32" s="25">
+        <f t="shared" si="6"/>
+        <v>1.9569892473118278</v>
+      </c>
+      <c r="O32" s="25">
+        <f t="shared" si="7"/>
+        <v>5.0496671786994352</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44835</v>
       </c>
@@ -4021,39 +8226,593 @@
         <f t="shared" si="0"/>
         <v>2022-4</v>
       </c>
+      <c r="C33" s="25">
+        <v>14.894</v>
+      </c>
+      <c r="D33" s="21">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="E33" s="21">
+        <v>-9.141</v>
+      </c>
+      <c r="F33" s="21">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="G33" s="21">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="I33" s="23">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="J33" s="20">
+        <f t="shared" si="10"/>
+        <v>0.2776957163958641</v>
+      </c>
+      <c r="K33" s="31">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L33" s="30">
+        <f t="shared" si="3"/>
+        <v>0.72230428360413579</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="4"/>
+        <v>7.0788973384030411</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" si="6"/>
+        <v>1.9657794676806082</v>
+      </c>
+      <c r="O33" s="25">
+        <f t="shared" si="7"/>
+        <v>5.1131178707224318</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-1</v>
+      </c>
+      <c r="C34" s="25">
+        <v>14.981</v>
+      </c>
+      <c r="D34" s="21">
+        <v>4.33</v>
+      </c>
+      <c r="E34" s="21">
+        <v>-0.157</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="G34" s="21">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="I34" s="23">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="J34" s="20">
+        <f t="shared" si="10"/>
+        <v>0.28903277484814099</v>
+      </c>
+      <c r="K34" s="30">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="L34" s="30">
+        <f t="shared" si="3"/>
+        <v>0.71096722515185906</v>
+      </c>
+      <c r="M34" s="25">
+        <f t="shared" si="4"/>
+        <v>7.0532015065913365</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" si="6"/>
+        <v>2.0386064030131825</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" si="7"/>
+        <v>5.014595103578154</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-2</v>
+      </c>
+      <c r="C35" s="25">
+        <v>16.728000000000002</v>
+      </c>
+      <c r="D35" s="21">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="I35" s="23">
+        <v>2.282</v>
+      </c>
+      <c r="J35" s="20">
+        <f t="shared" ref="J35:J42" si="11">D35/C35</f>
+        <v>0.29256336681013867</v>
+      </c>
+      <c r="K35" s="30">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="L35" s="30">
+        <f t="shared" si="3"/>
+        <v>0.70743663318986127</v>
+      </c>
+      <c r="M35" s="25">
+        <f t="shared" si="4"/>
+        <v>7.3304119193689754</v>
+      </c>
+      <c r="N35" s="25">
+        <f t="shared" si="6"/>
+        <v>2.1446099912357584</v>
+      </c>
+      <c r="O35" s="25">
+        <f t="shared" si="7"/>
+        <v>5.1858019281332171</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-3</v>
+      </c>
+      <c r="C36" s="25">
+        <v>17.902999999999999</v>
+      </c>
+      <c r="D36" s="21">
+        <v>5.0709999999999997</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0.221</v>
+      </c>
+      <c r="F36" s="21">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="I36" s="27">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="J36" s="20">
+        <f t="shared" si="11"/>
+        <v>0.28324861755013125</v>
+      </c>
+      <c r="K36" s="31">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L36" s="30">
+        <f t="shared" si="3"/>
+        <v>0.71675138244986869</v>
+      </c>
+      <c r="M36" s="25">
+        <f t="shared" si="4"/>
+        <v>7.3342892257271606</v>
+      </c>
+      <c r="N36" s="25">
+        <f t="shared" si="6"/>
+        <v>2.0774272839000409</v>
+      </c>
+      <c r="O36" s="25">
+        <f t="shared" si="7"/>
+        <v>5.2568619418271192</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-4</v>
+      </c>
+      <c r="C37" s="25">
+        <v>19.285</v>
+      </c>
+      <c r="D37" s="21">
+        <v>5.5369999999999999</v>
+      </c>
+      <c r="E37" s="21">
+        <v>1.429</v>
+      </c>
+      <c r="F37" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="G37" s="21">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="I37" s="23">
+        <v>2.601</v>
+      </c>
+      <c r="J37" s="20">
+        <f t="shared" si="11"/>
+        <v>0.28711433756805804</v>
+      </c>
+      <c r="K37" s="30">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="L37" s="30">
+        <f t="shared" si="3"/>
+        <v>0.71288566243194196</v>
+      </c>
+      <c r="M37" s="25">
+        <f t="shared" si="4"/>
+        <v>7.4144559784698192</v>
+      </c>
+      <c r="N37" s="25">
+        <f t="shared" si="6"/>
+        <v>2.1287966166858898</v>
+      </c>
+      <c r="O37" s="25">
+        <f t="shared" si="7"/>
+        <v>5.2856593617839298</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-1</v>
+      </c>
+      <c r="C38" s="25">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="D38" s="21">
+        <v>5.633</v>
+      </c>
+      <c r="E38" s="21">
+        <v>-0.65400000000000003</v>
+      </c>
+      <c r="F38" s="21">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I38" s="23">
+        <v>2.5720000000000001</v>
+      </c>
+      <c r="J38" s="20">
+        <f t="shared" si="11"/>
+        <v>0.30171397964649166</v>
+      </c>
+      <c r="K38" s="31">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="L38" s="30">
+        <f t="shared" si="3"/>
+        <v>0.6982860203535084</v>
+      </c>
+      <c r="M38" s="25">
+        <f t="shared" si="4"/>
+        <v>7.2589424572317265</v>
+      </c>
+      <c r="N38" s="25">
+        <f t="shared" si="6"/>
+        <v>2.1901244167962672</v>
+      </c>
+      <c r="O38" s="25">
+        <f t="shared" si="7"/>
+        <v>5.0688180404354597</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-2</v>
+      </c>
+      <c r="C39" s="25">
+        <v>20.55</v>
+      </c>
+      <c r="D39" s="21">
+        <v>6.13</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F39" s="21">
+        <v>1.57</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="I39" s="23">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="J39" s="20">
+        <f t="shared" si="11"/>
+        <v>0.29829683698296833</v>
+      </c>
+      <c r="K39" s="31">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="L39" s="30">
+        <f t="shared" si="3"/>
+        <v>0.70170316301703173</v>
+      </c>
+      <c r="M39" s="25">
+        <f t="shared" ref="M39:M42" si="12">C39/I39</f>
+        <v>7.4321880650994574</v>
+      </c>
+      <c r="N39" s="25">
+        <f t="shared" ref="N39:N42" si="13">J39*M39</f>
+        <v>2.2169981916817356</v>
+      </c>
+      <c r="O39" s="25">
+        <f t="shared" ref="O39:O42" si="14">L39*M39</f>
+        <v>5.2151898734177218</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-3</v>
+      </c>
+      <c r="C40" s="25">
+        <v>21.001999999999999</v>
+      </c>
+      <c r="D40" s="21">
+        <v>6.4089999999999998</v>
+      </c>
+      <c r="E40" s="21">
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="F40" s="21">
+        <v>1.69</v>
+      </c>
+      <c r="G40" s="21">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="I40" s="23">
+        <v>2.9</v>
+      </c>
+      <c r="J40" s="20">
+        <f t="shared" si="11"/>
+        <v>0.30516141319874296</v>
+      </c>
+      <c r="K40" s="31">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="L40" s="30">
+        <f t="shared" si="3"/>
+        <v>0.6948385868012571</v>
+      </c>
+      <c r="M40" s="25">
+        <f t="shared" si="12"/>
+        <v>7.242068965517241</v>
+      </c>
+      <c r="N40" s="25">
+        <f t="shared" si="13"/>
+        <v>2.21</v>
+      </c>
+      <c r="O40" s="25">
+        <f t="shared" si="14"/>
+        <v>5.0320689655172419</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-4</v>
+      </c>
+      <c r="C41" s="25">
+        <v>22.797999999999998</v>
+      </c>
+      <c r="D41" s="21">
+        <v>6.9109999999999996</v>
+      </c>
+      <c r="E41" s="21">
+        <v>6.883</v>
+      </c>
+      <c r="F41" s="21">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="G41" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="I41" s="23">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="J41" s="20">
+        <f t="shared" si="11"/>
+        <v>0.3031406263707343</v>
+      </c>
+      <c r="K41" s="31">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="L41" s="30">
+        <f t="shared" si="3"/>
+        <v>0.69685937362926575</v>
+      </c>
+      <c r="M41" s="25">
+        <f t="shared" si="12"/>
+        <v>7.43089960886571</v>
+      </c>
+      <c r="N41" s="25">
+        <f t="shared" si="13"/>
+        <v>2.252607561929596</v>
+      </c>
+      <c r="O41" s="25">
+        <f t="shared" si="14"/>
+        <v>5.1782920469361144</v>
+      </c>
+      <c r="R41" t="s">
+        <v>85</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2025-1</v>
+      </c>
+      <c r="C42" s="25">
+        <v>21.181999999999999</v>
+      </c>
+      <c r="D42" s="21">
+        <v>6.4960000000000004</v>
+      </c>
+      <c r="E42" s="21">
+        <v>1.776</v>
+      </c>
+      <c r="F42" s="21">
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="G42" s="21">
+        <v>1.228</v>
+      </c>
+      <c r="I42" s="23">
+        <v>3.036</v>
+      </c>
+      <c r="J42" s="20">
+        <f t="shared" si="11"/>
+        <v>0.30667547918043625</v>
+      </c>
+      <c r="K42" s="31">
+        <v>0.307</v>
+      </c>
+      <c r="L42" s="30">
+        <f t="shared" si="3"/>
+        <v>0.69332452081956375</v>
+      </c>
+      <c r="M42" s="25">
+        <f t="shared" si="12"/>
+        <v>6.9769433465085635</v>
+      </c>
+      <c r="N42" s="25">
+        <f t="shared" si="13"/>
+        <v>2.13965744400527</v>
+      </c>
+      <c r="O42" s="25">
+        <f t="shared" si="14"/>
+        <v>4.837285902503293</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N12" r:id="rId1" xr:uid="{310AC28A-E6DF-4C35-B64F-A40CC1F4B549}"/>
-    <hyperlink ref="N13" r:id="rId2" xr:uid="{284AA07B-EEE3-41B3-88B3-23DB3B0CDCE6}"/>
-    <hyperlink ref="N11" r:id="rId3" xr:uid="{D83B75E8-5302-43D8-BEAF-3C61EFB7E132}"/>
-    <hyperlink ref="N10" r:id="rId4" xr:uid="{04EA2F9F-B731-461A-9C7A-762EFF61584C}"/>
-    <hyperlink ref="N27" r:id="rId5" xr:uid="{62FBFDE2-4EAA-4686-B22E-F3D590465C90}"/>
-    <hyperlink ref="N28" r:id="rId6" xr:uid="{F057F62D-9546-406F-ACA6-6975030D6DD4}"/>
-    <hyperlink ref="N14" r:id="rId7" xr:uid="{113F7453-9A62-4689-A913-CC4CDE460DD3}"/>
-    <hyperlink ref="N15" r:id="rId8" xr:uid="{F4A87CDF-CBF1-4EDF-B4FB-D20DE917B537}"/>
-    <hyperlink ref="N16" r:id="rId9" xr:uid="{79D888BA-CFD2-4103-AAE1-64B15369E9EB}"/>
-    <hyperlink ref="N17" r:id="rId10" xr:uid="{9EC24FEF-A02D-4732-A625-4E17F21A1F39}"/>
-    <hyperlink ref="N18" r:id="rId11" xr:uid="{D5F0C24B-06EF-4044-AD24-01F2FCAEA016}"/>
-    <hyperlink ref="N19" r:id="rId12" xr:uid="{2C0D21DB-42A5-46DF-A581-837D1DFDF2A6}"/>
-    <hyperlink ref="N20" r:id="rId13" xr:uid="{DA4A7E69-C2DB-4267-BB33-13B4073C6C7F}"/>
-    <hyperlink ref="N21" r:id="rId14" xr:uid="{C85F4ABC-10AA-48B2-98C2-19794A25ED5C}"/>
-    <hyperlink ref="N22" r:id="rId15" xr:uid="{91F83EAD-64ED-465A-9C24-BA28E97E1B6E}"/>
-    <hyperlink ref="N23" r:id="rId16" xr:uid="{855A1B9F-E858-417D-9CAC-ADAF269B9EF6}"/>
-    <hyperlink ref="N24" r:id="rId17" xr:uid="{A56D5E93-6AA5-4E87-919F-4FED3EAF20BA}"/>
-    <hyperlink ref="N25" r:id="rId18" xr:uid="{A5F0C4D5-B5AB-4C44-90CA-2F8118A4A953}"/>
-    <hyperlink ref="N26" r:id="rId19" xr:uid="{757DB89D-456E-4553-BF88-440865D84FEF}"/>
-    <hyperlink ref="N29" r:id="rId20" xr:uid="{B79A578C-9558-49CA-9095-698179928FCB}"/>
-    <hyperlink ref="O30" r:id="rId21" xr:uid="{C705DCCF-249A-49FC-A1B0-052F4469FFE9}"/>
-    <hyperlink ref="O22" r:id="rId22" xr:uid="{9DDCE714-50C1-4F1F-80A8-95D19971AAA5}"/>
-    <hyperlink ref="O31" r:id="rId23" xr:uid="{75AD9778-FABD-4C70-A8A8-C8FFA47D8D2A}"/>
+    <hyperlink ref="S12" r:id="rId1" xr:uid="{310AC28A-E6DF-4C35-B64F-A40CC1F4B549}"/>
+    <hyperlink ref="S13" r:id="rId2" xr:uid="{284AA07B-EEE3-41B3-88B3-23DB3B0CDCE6}"/>
+    <hyperlink ref="S11" r:id="rId3" xr:uid="{D83B75E8-5302-43D8-BEAF-3C61EFB7E132}"/>
+    <hyperlink ref="S10" r:id="rId4" xr:uid="{04EA2F9F-B731-461A-9C7A-762EFF61584C}"/>
+    <hyperlink ref="S27" r:id="rId5" xr:uid="{62FBFDE2-4EAA-4686-B22E-F3D590465C90}"/>
+    <hyperlink ref="S28" r:id="rId6" xr:uid="{F057F62D-9546-406F-ACA6-6975030D6DD4}"/>
+    <hyperlink ref="S14" r:id="rId7" xr:uid="{113F7453-9A62-4689-A913-CC4CDE460DD3}"/>
+    <hyperlink ref="S15" r:id="rId8" xr:uid="{F4A87CDF-CBF1-4EDF-B4FB-D20DE917B537}"/>
+    <hyperlink ref="S16" r:id="rId9" xr:uid="{79D888BA-CFD2-4103-AAE1-64B15369E9EB}"/>
+    <hyperlink ref="S17" r:id="rId10" xr:uid="{9EC24FEF-A02D-4732-A625-4E17F21A1F39}"/>
+    <hyperlink ref="S18" r:id="rId11" xr:uid="{D5F0C24B-06EF-4044-AD24-01F2FCAEA016}"/>
+    <hyperlink ref="S19" r:id="rId12" xr:uid="{2C0D21DB-42A5-46DF-A581-837D1DFDF2A6}"/>
+    <hyperlink ref="S20" r:id="rId13" xr:uid="{DA4A7E69-C2DB-4267-BB33-13B4073C6C7F}"/>
+    <hyperlink ref="S21" r:id="rId14" xr:uid="{C85F4ABC-10AA-48B2-98C2-19794A25ED5C}"/>
+    <hyperlink ref="S22" r:id="rId15" xr:uid="{91F83EAD-64ED-465A-9C24-BA28E97E1B6E}"/>
+    <hyperlink ref="S23" r:id="rId16" xr:uid="{855A1B9F-E858-417D-9CAC-ADAF269B9EF6}"/>
+    <hyperlink ref="S24" r:id="rId17" xr:uid="{A56D5E93-6AA5-4E87-919F-4FED3EAF20BA}"/>
+    <hyperlink ref="S25" r:id="rId18" xr:uid="{A5F0C4D5-B5AB-4C44-90CA-2F8118A4A953}"/>
+    <hyperlink ref="S26" r:id="rId19" xr:uid="{757DB89D-456E-4553-BF88-440865D84FEF}"/>
+    <hyperlink ref="S29" r:id="rId20" xr:uid="{B79A578C-9558-49CA-9095-698179928FCB}"/>
+    <hyperlink ref="T30" r:id="rId21" xr:uid="{C705DCCF-249A-49FC-A1B0-052F4469FFE9}"/>
+    <hyperlink ref="T22" r:id="rId22" xr:uid="{9DDCE714-50C1-4F1F-80A8-95D19971AAA5}"/>
+    <hyperlink ref="T31" r:id="rId23" xr:uid="{75AD9778-FABD-4C70-A8A8-C8FFA47D8D2A}"/>
+    <hyperlink ref="T35" r:id="rId24" xr:uid="{BE448FE4-97A9-4606-A220-4FA4291C8AC4}"/>
+    <hyperlink ref="T36" r:id="rId25" xr:uid="{3521901E-77F2-4CAC-A17C-115DB11FC427}"/>
+    <hyperlink ref="T39" r:id="rId26" xr:uid="{85B16E67-E687-42C5-B260-A8E9C1E58255}"/>
+    <hyperlink ref="T19" r:id="rId27" xr:uid="{F845CDD4-F119-4DF8-9FC7-C7C5155382D3}"/>
+    <hyperlink ref="T41" r:id="rId28" xr:uid="{E4AE24F7-E281-42EC-A566-81EF611CBE37}"/>
+    <hyperlink ref="T40" r:id="rId29" xr:uid="{B87DD910-B065-4135-B106-DDFCC9864E6D}"/>
+    <hyperlink ref="T38" r:id="rId30" xr:uid="{76C44D2C-84E9-4BBE-BE74-2AC8347FA364}"/>
+    <hyperlink ref="T37" r:id="rId31" xr:uid="{0E0F6DD6-E1C6-4340-B9CB-CA48E88D588C}"/>
+    <hyperlink ref="T34" r:id="rId32" xr:uid="{96AE7587-7D2F-4D13-8DE9-901FE1379B11}"/>
+    <hyperlink ref="T33" r:id="rId33" xr:uid="{02DA13C9-0DEB-44BF-9F60-EB51EF7F88AC}"/>
+    <hyperlink ref="T32" r:id="rId34" xr:uid="{DE416D07-84CE-4AE3-AB3F-ECD5726760C5}"/>
+    <hyperlink ref="T29" r:id="rId35" xr:uid="{E469D634-6508-4329-B147-892FAECD79BD}"/>
+    <hyperlink ref="T27" r:id="rId36" xr:uid="{0B3F0CC1-A58E-4E48-9E93-C4527096D66C}"/>
+    <hyperlink ref="T26" r:id="rId37" xr:uid="{D473D4DE-355B-4539-9DAB-1100F22D4740}"/>
+    <hyperlink ref="T42" r:id="rId38" xr:uid="{028B50CF-AF79-48D6-B123-53FB3D171E80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId24"/>
+  <legacyDrawing r:id="rId39"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A29E1F4-C267-4D0D-9E3C-42E2FD33A5C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A860B61-F31C-48E8-9D1F-3508A5445B29}">
   <dimension ref="A2:E31"/>
   <sheetViews>
@@ -4381,4 +9140,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B0CE79-CCDC-4336-A736-ECB3079B8B05}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23">
+        <f>A2/(A2+(1-A2)*$C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <f>A2+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="23">
+        <f>A3/(A3+(1-A3)*$C$2)</f>
+        <v>0.25188916876574308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <f>A3+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="23">
+        <f t="shared" ref="B4:B12" si="0">A4/(A4+(1-A4)*$C$2)</f>
+        <v>0.43103448275862072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <f t="shared" ref="A5:A11" si="1">A4+0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B5" s="23">
+        <f t="shared" si="0"/>
+        <v>0.56497175141242939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="23">
+        <f t="shared" si="0"/>
+        <v>0.668896321070234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="23">
+        <f t="shared" si="0"/>
+        <v>0.75187969924812026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.81967213114754101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.87609511889862335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="B10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.92378752886836024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.96463022508038587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <f t="shared" ref="A12" si="2">A11+0.1</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="B12" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/rlang/uber-profit-loss.xlsx
+++ b/rlang/uber-profit-loss.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleet\src\ridehail\rlang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8B359F-6EA4-447A-9A1A-250C015672A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11258DC4-8603-4C0B-9404-855468E2FE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{57121A93-DE6B-494A-9DED-4B862E3AC3F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{57121A93-DE6B-494A-9DED-4B862E3AC3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="1" r:id="rId1"/>
     <sheet name="P&amp;L Chart" sheetId="3" r:id="rId2"/>
-    <sheet name="Gross &amp; Net" sheetId="4" r:id="rId3"/>
+    <sheet name="Revenue Split Chart" sheetId="6" r:id="rId3"/>
+    <sheet name="Gross &amp; Net" sheetId="4" r:id="rId4"/>
+    <sheet name="Utilization" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +34,7 @@
     <author>Tom Slee</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D2E3238C-CBE3-4AA4-9977-7244B3F92257}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EDC89232-F776-4A72-AB56-11B972F7CE0F}">
       <text>
         <r>
           <rPr>
@@ -49,7 +44,55 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Tom Slee: consolidated statement of operatinos
+          <t>Tom Slee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Net Income</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{10981CFF-1235-4721-887A-3EE841585576}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Slee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Corporate, not segment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D2E3238C-CBE3-4AA4-9977-7244B3F92257}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tom Slee: consolidated statement of operations
 </t>
         </r>
         <r>
@@ -60,11 +103,36 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-From the Condensed Consolidated Statement of Operations in Supplementary material</t>
+"Income from operations" from the Condensed Consolidated Statement of Operations in Supplementary material</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00ED708A-B528-4BAA-8BE6-36F3A28E3AC3}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{098806B9-D8A7-45D4-B078-FAFC7B0A839F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Slee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Includes mobility and delivery
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00ED708A-B528-4BAA-8BE6-36F3A28E3AC3}">
       <text>
         <r>
           <rPr>
@@ -79,7 +147,56 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{68FB9135-3929-4CDF-8568-AC77D5861D64}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{699CEA52-FDEC-4D3E-A5CC-6FA82F14CA98}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tom Slee
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ReTake rate renamed to Revenue Margin in 2023-03.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{30D7A135-33CF-4503-9226-169161B7B410}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Slee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Per trip</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{68FB9135-3929-4CDF-8568-AC77D5861D64}">
       <text>
         <r>
           <rPr>
@@ -104,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{59C88C40-4744-4731-ACA0-0A63BC467F25}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{59C88C40-4744-4731-ACA0-0A63BC467F25}">
       <text>
         <r>
           <rPr>
@@ -129,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{977C9C0B-87E3-4784-954D-8D4F23032F17}">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{977C9C0B-87E3-4784-954D-8D4F23032F17}">
       <text>
         <r>
           <rPr>
@@ -153,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{6D3450B4-D35A-4620-9A20-37DC7417252E}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{6D3450B4-D35A-4620-9A20-37DC7417252E}">
       <text>
         <r>
           <rPr>
@@ -177,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{2489FC53-86C5-4523-A76B-2E6E061B4F45}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{2489FC53-86C5-4523-A76B-2E6E061B4F45}">
       <text>
         <r>
           <rPr>
@@ -202,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{9A307DA0-78A3-4C97-86DC-AFB715F0EE6E}">
+    <comment ref="R14" authorId="0" shapeId="0" xr:uid="{9A307DA0-78A3-4C97-86DC-AFB715F0EE6E}">
       <text>
         <r>
           <rPr>
@@ -228,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{204A3EEC-7ED0-4092-A5AB-745F8F418AF4}">
+    <comment ref="K36" authorId="0" shapeId="0" xr:uid="{C67C06C4-DC49-4717-BB90-C78ADF0FB7D2}">
       <text>
         <r>
           <rPr>
@@ -248,8 +365,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Only overall numbers reported. It will be almost all rides at this point though.
-</t>
+Take rate renamed to "revenue margin" in Q3 2023.
+"Mobility Revenue Margin in Q3 2023 was negatively impacted by business model changes in some countries that classified certain sales and marketing costs as contra revenue by 90 bps." (90bps = 0.90%)</t>
         </r>
       </text>
     </comment>
@@ -292,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>Profit / Loss ($B)</t>
   </si>
@@ -483,28 +600,86 @@
     <t>Amazon total losses $2.8B 1995-2001</t>
   </si>
   <si>
-    <t>Mobility take rate</t>
-  </si>
-  <si>
     <t>Computed take rate</t>
   </si>
   <si>
     <t xml:space="preserve">https://investor.uber.com/news-events/news/press-release-details/2022/Uber-Announces-Results-for-Second-Quarter-2022/default.aspx </t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2022/Uber-Announces-Results-for-Third-Quarter-2022/default.aspx</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2023/Uber-Announces-Results-for-Fourth-Quarter-and-Full-Year-2022/default.aspx</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2023/Uber-Announces-Results-for-Second-Quarter-2023/default.aspx</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2023/Uber-Announces-Results-for-First-Quarter-2023/default.aspx</t>
+  </si>
+  <si>
+    <t>Mobility driver payments</t>
+  </si>
+  <si>
+    <t>Gross Bookings (Mobility) ($B)</t>
+  </si>
+  <si>
+    <t>Uber revenue per trip</t>
+  </si>
+  <si>
+    <t>Driver revenue per trip</t>
+  </si>
+  <si>
+    <t>Bookings per trip</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2023/Uber-Announces-Results-for-Third-Quarter-2023/default.aspx</t>
+  </si>
+  <si>
+    <t>Mobility take rate / revenue margin</t>
+  </si>
+  <si>
+    <t>P3 (time)</t>
+  </si>
+  <si>
+    <t>P3 (distance)</t>
+  </si>
+  <si>
+    <t>Speed (P1) / Speed (P3)</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2024/Uber-Announces-Results-for-Fourth-Quarter-and-Full-Year-2023/default.aspx</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2024/Uber-Announces-Results-for-First-Quarter-2024/default.aspx</t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2024/Uber-Announces-Results-for-Second-Quarter-2024/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://investor.uber.com/financials/default.aspx </t>
+  </si>
+  <si>
+    <t>https://investor.uber.com/news-events/news/press-release-details/2024/Uber-Announces-Results-for-Third-Quarter-2024/default.aspx</t>
+  </si>
+  <si>
+    <t>https://s23.q4cdn.com/407969754/files/doc_earnings/2024/q4/earnings-result/Uber-Q4-24-Earnings-Press-Release.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,8 +748,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,8 +775,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -602,15 +789,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -643,20 +846,27 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="5"/>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
@@ -826,7 +1036,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P&amp;L'!$C$1</c:f>
+              <c:f>'P&amp;L'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -864,9 +1074,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'P&amp;L'!$B$2:$B$29</c:f>
+              <c:f>'P&amp;L'!$B$2:$B$50</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2015-1</c:v>
                 </c:pt>
@@ -950,16 +1160,52 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'P&amp;L'!$C$2:$C$32</c:f>
+              <c:f>'P&amp;L'!$D$2:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -1049,6 +1295,36 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.5529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.633</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.4089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9109999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,11 +1341,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P&amp;L'!$D$1</c:f>
+              <c:f>'P&amp;L'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Profit / Loss ($B)</c:v>
+                  <c:v> Profit / Loss ($B) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1085,7 +1361,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
@@ -1102,9 +1378,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'P&amp;L'!$B$2:$B$29</c:f>
+              <c:f>'P&amp;L'!$B$2:$B$50</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2015-1</c:v>
                 </c:pt>
@@ -1188,16 +1464,52 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'P&amp;L'!$D$2:$D$32</c:f>
+              <c:f>'P&amp;L'!$E$2:$E$50</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>-0.2</c:v>
                 </c:pt>
@@ -1287,6 +1599,36 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-2.601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.206</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.141</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.157</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.429</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,7 +1645,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P&amp;L'!$H$1</c:f>
+              <c:f>'P&amp;L'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1339,9 +1681,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'P&amp;L'!$B$2:$B$29</c:f>
+              <c:f>'P&amp;L'!$B$2:$B$50</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2015-1</c:v>
                 </c:pt>
@@ -1425,16 +1767,52 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'P&amp;L'!$H$2:$H$32</c:f>
+              <c:f>'P&amp;L'!$I$2:$I$50</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="49"/>
                 <c:pt idx="9">
                   <c:v>0.88900000000000001</c:v>
                 </c:pt>
@@ -1497,6 +1875,36 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.8720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.282</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0680000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,11 +1921,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'P&amp;L'!$E$1</c:f>
+              <c:f>'P&amp;L'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Adjusted EBITDA ($B)</c:v>
+                  <c:v> Adjusted EBITDA ($B) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1551,12 +1959,140 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L'!$B$2:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>2015-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'P&amp;L'!$E$2:$E$32</c:f>
+              <c:f>'P&amp;L'!$F$2:$F$50</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="49"/>
                 <c:pt idx="8">
                   <c:v>-0.65700000000000003</c:v>
                 </c:pt>
@@ -1622,6 +2158,36 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.3819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8420000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,12 +2230,140 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L'!$B$2:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>2015-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'P&amp;L'!$F$2:$F$32</c:f>
+              <c:f>'P&amp;L'!$G$2:$G$50</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="49"/>
                 <c:pt idx="12">
                   <c:v>-0.47799999999999998</c:v>
                 </c:pt>
@@ -1723,6 +2417,36 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.495</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,7 +2741,1906 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1800" b="1"/>
+              <a:t>Revenue split between Uber and drivers (global averages)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P&amp;L'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bookings per trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L'!$B$14:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2021-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L'!$M$14:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>9.5862676056338039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6698872785829302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7804154302670616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6885465505693222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3845161290322574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2677400119260582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0926553672316386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0854745673833248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5585042219541627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1329715061058341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9873310810810816</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7047817047817047</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6807187284035932</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7180675049636012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0225472273004259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.406779661016949</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2343023255813961</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1388888888888893</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.006656426011264</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0788973384030411</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.0532015065913365</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3304119193689754</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3342892257271606</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4144559784698192</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2589424572317265</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4321880650994574</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.242068965517241</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.43089960886571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-205F-4D60-8AE9-F40A9569D3A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P&amp;L'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uber revenue per trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L'!$B$14:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2021-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L'!$N$14:$N$41</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.200704225352113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1739130434782608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1884272997032639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0093770931011385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8902802623732853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.152542372881356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.118510749868904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4879372738238845</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0678426051560379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1520270270270272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0194040194040195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5894955079474774</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0708140304434153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3436928702010968</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2870056497175142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4651162790697674</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8979700854700856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9569892473118278</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9657794676806082</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0386064030131825</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1446099912357584</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0774272839000409</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1287966166858898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1901244167962672</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2169981916817356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.252607561929596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-205F-4D60-8AE9-F40A9569D3A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'P&amp;L'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Driver revenue per trip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'P&amp;L'!$B$14:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2018-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2021-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2023-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2023-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2024-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2024-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L'!$O$14:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>7.3855633802816909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4959742351046685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5919881305637977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6791694574681832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3845161290322574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3774597495527727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9401129943502822</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9669638175144213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0705669481302778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0651289009497962</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8353040540540544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6853776853776852</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0912232204561159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6472534745201859</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6788543570993291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1197740112994348</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7691860465116287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2409188034188032</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0496671786994352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1131178707224318</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.014595103578154</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1858019281332171</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.2568619418271192</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2856593617839298</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0688180404354597</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2151898734177218</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0320689655172419</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1782920469361144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-205F-4D60-8AE9-F40A9569D3A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="343848464"/>
+        <c:axId val="382204800"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Take Rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'P&amp;L'!$K$14:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.2295684113865932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22481265611990009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28127383676582762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26134680721317188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27083697361523679</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26009189366590085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30348892783176679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29899348727057429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-205F-4D60-8AE9-F40A9569D3A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="748609231"/>
+        <c:axId val="848750991"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="343848464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382204800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="382204800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Revenue per trip ($US)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343848464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="848750991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Uber take rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748609231"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="748609231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="848750991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42587811078589005"/>
+          <c:y val="0.12353600129880672"/>
+          <c:w val="0.22366646054059997"/>
+          <c:h val="0.1390538606898786"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Utilization rate </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1200"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>by time and distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14964566929133857"/>
+          <c:y val="7.407407407407407E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14445603674540683"/>
+          <c:y val="6.0601851851851872E-2"/>
+          <c:w val="0.80283573928258967"/>
+          <c:h val="0.73382728200641578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Utilization!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P3 (distance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Utilization!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Utilization!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25188916876574308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43103448275862072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56497175141242939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.668896321070234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75187969924812026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81967213114754101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87609511889862335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92378752886836024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96463022508038587</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD31-4016-A82A-CF4A2336A5FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1953587311"/>
+        <c:axId val="2045181631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1953587311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Utilization rate by time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2045181631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2045181631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Utilization rate by distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953587311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2573,11 +5196,1030 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{82200E4A-E82C-4274-9E48-1F87C10FBE87}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2588,7 +6230,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6291263"/>
+    <xdr:ext cx="8638761" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2614,6 +6256,80 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="609599" y="190500"/>
+    <xdr:ext cx="9096375" cy="5543550"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07CC7ED-9A21-4C89-AA02-185B35CD303A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBEA696-1138-604F-1F85-80767BBE4EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2914,75 +6630,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D3D3FC-8B99-4752-A7B2-3B559B0FE7B5}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="19" customWidth="1"/>
-    <col min="5" max="6" width="18" style="19" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="13" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="105.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="114.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="18" style="21" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="30" customWidth="1"/>
+    <col min="13" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="105.28515625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="114.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42005</v>
       </c>
@@ -2990,38 +6726,34 @@
         <f>CONCATENATE(YEAR(A2), "-", ROUNDUP(MONTH(A2)/3,0))</f>
         <v>2015-1</v>
       </c>
-      <c r="C2" s="21">
+      <c r="D2" s="21">
         <v>0.25</v>
       </c>
-      <c r="D2" s="23">
+      <c r="E2" s="21">
         <v>-0.2</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>EDATE(A2,3)</f>
         <v>42095</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f t="shared" ref="B3:B33" si="0">CONCATENATE(YEAR(A3), "-", ROUNDUP(MONTH(A3)/3,0))</f>
+        <f t="shared" ref="B3:B41" si="0">CONCATENATE(YEAR(A3), "-", ROUNDUP(MONTH(A3)/3,0))</f>
         <v>2015-2</v>
       </c>
-      <c r="C3" s="21">
+      <c r="D3" s="21">
         <v>0.35</v>
       </c>
-      <c r="D3" s="23">
+      <c r="E3" s="21">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="30"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A24" si="1">EDATE(A3,3)</f>
         <v>42186</v>
@@ -3030,18 +6762,16 @@
         <f t="shared" si="0"/>
         <v>2015-3</v>
       </c>
-      <c r="C4" s="21">
+      <c r="D4" s="21">
         <v>0.7</v>
       </c>
-      <c r="D4" s="23">
+      <c r="E4" s="21">
         <v>-0.65</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>42278</v>
@@ -3050,27 +6780,25 @@
         <f t="shared" si="0"/>
         <v>2015-4</v>
       </c>
-      <c r="C5" s="21">
+      <c r="D5" s="21">
         <v>0.8</v>
       </c>
-      <c r="D5" s="23">
+      <c r="E5" s="21">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5">
+      <c r="J5" s="20"/>
+      <c r="K5" s="30"/>
+      <c r="P5">
         <v>1999</v>
       </c>
-      <c r="L5">
+      <c r="Q5">
         <v>-0.7</v>
       </c>
-      <c r="M5" t="s">
+      <c r="R5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>42370</v>
@@ -3079,21 +6807,19 @@
         <f t="shared" si="0"/>
         <v>2016-1</v>
       </c>
-      <c r="C6" s="21">
+      <c r="D6" s="21">
         <v>0.95</v>
       </c>
-      <c r="D6" s="23">
+      <c r="E6" s="21">
         <v>-0.5</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="M6" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="30"/>
+      <c r="R6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>42461</v>
@@ -3102,19 +6828,17 @@
         <f t="shared" si="0"/>
         <v>2016-2</v>
       </c>
-      <c r="C7" s="21">
+      <c r="D7" s="21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="23">
+      <c r="E7" s="21">
         <v>-0.75</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="24"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="30"/>
+      <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>42552</v>
@@ -3123,19 +6847,17 @@
         <f t="shared" si="0"/>
         <v>2016-3</v>
       </c>
-      <c r="C8" s="21">
+      <c r="D8" s="21">
         <v>1.7</v>
       </c>
-      <c r="D8" s="23">
+      <c r="E8" s="21">
         <v>-0.9</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="24"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="30"/>
+      <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>42644</v>
@@ -3144,24 +6866,22 @@
         <f t="shared" si="0"/>
         <v>2016-4</v>
       </c>
-      <c r="C9" s="21">
+      <c r="D9" s="21">
         <v>2.8</v>
       </c>
-      <c r="D9" s="23">
+      <c r="E9" s="21">
         <v>-0.99099999999999999</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="24">
+      <c r="J9" s="20"/>
+      <c r="K9" s="30"/>
+      <c r="P9" s="18">
         <v>2000</v>
       </c>
-      <c r="L9">
+      <c r="Q9">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>42736</v>
@@ -3170,30 +6890,29 @@
         <f t="shared" si="0"/>
         <v>2017-1</v>
       </c>
-      <c r="C10" s="21">
+      <c r="D10" s="21">
         <v>3.4</v>
       </c>
-      <c r="D10" s="23">
+      <c r="E10" s="21">
         <v>-0.70799999999999996</v>
       </c>
-      <c r="E10" s="23">
+      <c r="F10" s="21">
         <v>-0.65700000000000003</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="24"/>
-      <c r="M10" t="s">
+      <c r="J10" s="20"/>
+      <c r="K10" s="30"/>
+      <c r="P10" s="18"/>
+      <c r="R10" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P10" t="s">
+      <c r="U10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>42826</v>
@@ -3202,28 +6921,27 @@
         <f t="shared" si="0"/>
         <v>2017-2</v>
       </c>
-      <c r="C11" s="21">
+      <c r="D11" s="21">
         <v>1.75</v>
       </c>
-      <c r="D11" s="23">
+      <c r="E11" s="21">
         <v>-0.64500000000000002</v>
       </c>
-      <c r="E11" s="23">
+      <c r="F11" s="21">
         <f>-0.688</f>
         <v>-0.68799999999999994</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="H11">
+      <c r="I11" s="23">
         <v>0.88900000000000001</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="24"/>
-      <c r="N11" s="3" t="s">
+      <c r="J11" s="20"/>
+      <c r="K11" s="30"/>
+      <c r="P11" s="18"/>
+      <c r="S11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>42917</v>
@@ -3232,30 +6950,29 @@
         <f t="shared" si="0"/>
         <v>2017-3</v>
       </c>
-      <c r="C12" s="21">
+      <c r="D12" s="21">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D12" s="23">
+      <c r="E12" s="21">
         <v>-1.5</v>
       </c>
-      <c r="E12" s="23">
+      <c r="F12" s="21">
         <v>-0.73599999999999999</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12">
+      <c r="H12">
         <v>-0.74299999999999999</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="23">
         <v>0.98499999999999999</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="24"/>
-      <c r="N12" s="3" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="30"/>
+      <c r="P12" s="18"/>
+      <c r="S12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>43009</v>
@@ -3264,38 +6981,37 @@
         <f t="shared" si="0"/>
         <v>2017-4</v>
       </c>
-      <c r="C13" s="21">
+      <c r="D13" s="21">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D13" s="23">
+      <c r="E13" s="21">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E13" s="23">
+      <c r="F13" s="21">
         <v>-0.56100000000000005</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="H13">
+      <c r="I13" s="23">
         <v>1.0880000000000001</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25">
+      <c r="J13" s="20"/>
+      <c r="K13" s="30"/>
+      <c r="P13" s="19">
         <v>2001</v>
       </c>
-      <c r="L13">
+      <c r="Q13">
         <v>-0.5</v>
       </c>
-      <c r="M13" t="s">
+      <c r="R13" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O13" t="s">
+      <c r="T13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>43101</v>
@@ -3304,38 +7020,60 @@
         <f t="shared" si="0"/>
         <v>2018-1</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="25">
+        <v>10.89</v>
+      </c>
+      <c r="D14" s="21">
         <v>2.5</v>
       </c>
-      <c r="D14" s="23">
+      <c r="E14" s="21">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="E14" s="23">
+      <c r="F14" s="21">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="F14" s="23">
+      <c r="G14" s="21">
         <v>-0.47799999999999998</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="23">
         <v>1.1359999999999999</v>
       </c>
-      <c r="I14" s="26">
-        <f>2584/10893</f>
-        <v>0.23721656109428074</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="24"/>
-      <c r="M14" t="s">
+      <c r="J14" s="20">
+        <f t="shared" ref="J14:J16" si="2">D14/C14</f>
+        <v>0.2295684113865932</v>
+      </c>
+      <c r="K14" s="30">
+        <f>D14/C14</f>
+        <v>0.2295684113865932</v>
+      </c>
+      <c r="L14" s="30">
+        <f t="shared" ref="L14:L41" si="3">(C14-D14)/C14</f>
+        <v>0.77043158861340677</v>
+      </c>
+      <c r="M14" s="25">
+        <f t="shared" ref="M14:M38" si="4">C14/I14</f>
+        <v>9.5862676056338039</v>
+      </c>
+      <c r="N14" s="25">
+        <f>J14*M14</f>
+        <v>2.200704225352113</v>
+      </c>
+      <c r="O14" s="25">
+        <f>L14*M14</f>
+        <v>7.3855633802816909</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="R14" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>43191</v>
@@ -3344,35 +7082,57 @@
         <f t="shared" si="0"/>
         <v>2018-2</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="25">
+        <v>12.01</v>
+      </c>
+      <c r="D15" s="21">
         <v>2.7</v>
       </c>
-      <c r="D15" s="23">
+      <c r="E15" s="21">
         <v>-0.63800000000000001</v>
       </c>
-      <c r="E15" s="23">
+      <c r="F15" s="21">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="F15" s="23">
+      <c r="G15" s="21">
         <v>-0.73899999999999999</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.69499999999999995</v>
       </c>
-      <c r="H15">
+      <c r="I15" s="23">
         <v>1.242</v>
       </c>
-      <c r="I15" s="26">
-        <f>2768/12012</f>
-        <v>0.23043623043623043</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="24"/>
-      <c r="N15" s="3" t="s">
+      <c r="J15" s="20">
+        <f t="shared" si="2"/>
+        <v>0.22481265611990009</v>
+      </c>
+      <c r="K15" s="30">
+        <f t="shared" ref="K15:K21" si="5">D15/C15</f>
+        <v>0.22481265611990009</v>
+      </c>
+      <c r="L15" s="30">
+        <f t="shared" si="3"/>
+        <v>0.7751873438800998</v>
+      </c>
+      <c r="M15" s="25">
+        <f t="shared" si="4"/>
+        <v>9.6698872785829302</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" ref="N15:N38" si="6">J15*M15</f>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="O15" s="25">
+        <f t="shared" ref="O15:O38" si="7">L15*M15</f>
+        <v>7.4959742351046685</v>
+      </c>
+      <c r="P15" s="18"/>
+      <c r="S15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>43282</v>
@@ -3381,35 +7141,57 @@
         <f t="shared" si="0"/>
         <v>2018-3</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="25">
+        <v>10.488</v>
+      </c>
+      <c r="D16" s="21">
         <v>2.95</v>
       </c>
-      <c r="D16" s="23">
+      <c r="E16" s="21">
         <v>-0.93899999999999995</v>
       </c>
-      <c r="E16" s="23">
+      <c r="F16" s="21">
         <v>-0.45800000000000002</v>
       </c>
-      <c r="F16" s="23">
+      <c r="G16" s="21">
         <v>-0.76300000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.93899999999999995</v>
       </c>
-      <c r="H16">
+      <c r="I16" s="23">
         <v>1.3480000000000001</v>
       </c>
-      <c r="I16" s="26">
-        <f>2425/10488</f>
-        <v>0.23121662852784133</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="24"/>
-      <c r="N16" s="3" t="s">
+      <c r="J16" s="20">
+        <f t="shared" si="2"/>
+        <v>0.28127383676582762</v>
+      </c>
+      <c r="K16" s="30">
+        <f t="shared" si="5"/>
+        <v>0.28127383676582762</v>
+      </c>
+      <c r="L16" s="30">
+        <f t="shared" si="3"/>
+        <v>0.71872616323417238</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" si="4"/>
+        <v>7.7804154302670616</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" si="6"/>
+        <v>2.1884272997032639</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" si="7"/>
+        <v>5.5919881305637977</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="S16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>43374</v>
@@ -3418,40 +7200,62 @@
         <f t="shared" si="0"/>
         <v>2018-4</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="25">
+        <v>11.478999999999999</v>
+      </c>
+      <c r="D17" s="21">
         <v>3</v>
       </c>
-      <c r="D17" s="23">
+      <c r="E17" s="21">
         <v>-0.37</v>
       </c>
-      <c r="E17" s="23">
+      <c r="F17" s="21">
         <v>-0.81699999999999995</v>
       </c>
-      <c r="F17" s="23">
+      <c r="G17" s="21">
         <v>-1.0529999999999999</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.76800000000000002</v>
       </c>
-      <c r="H17">
+      <c r="I17" s="23">
         <v>1.4930000000000001</v>
       </c>
-      <c r="I17" s="26">
-        <f>2400/11479</f>
-        <v>0.2090774457705375</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="25">
+      <c r="J17" s="20">
+        <f t="shared" ref="J17" si="8">D17/C17</f>
+        <v>0.26134680721317188</v>
+      </c>
+      <c r="K17" s="30">
+        <f t="shared" si="5"/>
+        <v>0.26134680721317188</v>
+      </c>
+      <c r="L17" s="30">
+        <f t="shared" si="3"/>
+        <v>0.73865319278682806</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" si="4"/>
+        <v>7.6885465505693222</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" si="6"/>
+        <v>2.0093770931011385</v>
+      </c>
+      <c r="O17" s="25">
+        <f t="shared" si="7"/>
+        <v>5.6791694574681832</v>
+      </c>
+      <c r="P17" s="19">
         <v>2002</v>
       </c>
-      <c r="L17">
+      <c r="Q17">
         <v>-0.12</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>43466</v>
@@ -3460,35 +7264,57 @@
         <f t="shared" si="0"/>
         <v>2019-1</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="25">
+        <v>11.446</v>
+      </c>
+      <c r="D18" s="21">
         <v>3.1</v>
       </c>
-      <c r="D18" s="23">
+      <c r="E18" s="21">
         <v>-1.01</v>
       </c>
-      <c r="E18" s="23">
+      <c r="F18" s="21">
         <v>-0.86899999999999999</v>
       </c>
-      <c r="F18" s="23">
+      <c r="G18" s="21">
         <v>-1.034</v>
       </c>
-      <c r="H18">
+      <c r="I18" s="23">
         <v>1.55</v>
       </c>
-      <c r="I18" s="26">
-        <f>3099/14649</f>
-        <v>0.21155027646938357</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="24"/>
-      <c r="N18" s="3" t="s">
+      <c r="J18" s="20">
+        <f t="shared" ref="J18:J21" si="9">D18/C18</f>
+        <v>0.27083697361523679</v>
+      </c>
+      <c r="K18" s="30">
+        <f t="shared" si="5"/>
+        <v>0.27083697361523679</v>
+      </c>
+      <c r="L18" s="30">
+        <f t="shared" si="3"/>
+        <v>0.72916302638476327</v>
+      </c>
+      <c r="M18" s="25">
+        <f t="shared" si="4"/>
+        <v>7.3845161290322574</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O18" s="25">
+        <f t="shared" si="7"/>
+        <v>5.3845161290322574</v>
+      </c>
+      <c r="P18" s="18"/>
+      <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" t="s">
+      <c r="T18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>43556</v>
@@ -3497,38 +7323,60 @@
         <f t="shared" si="0"/>
         <v>2019-2</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="25">
+        <v>12.188000000000001</v>
+      </c>
+      <c r="D19" s="21">
         <v>3.17</v>
       </c>
-      <c r="D19" s="23">
+      <c r="E19" s="21">
         <v>-5.2</v>
       </c>
-      <c r="E19" s="23">
+      <c r="F19" s="21">
         <v>-0.65600000000000003</v>
       </c>
-      <c r="F19" s="23">
+      <c r="G19" s="21">
         <v>-5.4850000000000003</v>
       </c>
-      <c r="H19">
+      <c r="I19" s="23">
         <v>1.677</v>
       </c>
-      <c r="I19" s="26">
-        <f>3166/15756</f>
-        <v>0.20093932470170095</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="24"/>
-      <c r="M19" s="1" t="s">
+      <c r="J19" s="20">
+        <f t="shared" si="9"/>
+        <v>0.26009189366590085</v>
+      </c>
+      <c r="K19" s="30">
+        <f t="shared" si="5"/>
+        <v>0.26009189366590085</v>
+      </c>
+      <c r="L19" s="30">
+        <f t="shared" si="3"/>
+        <v>0.73990810633409909</v>
+      </c>
+      <c r="M19" s="25">
+        <f t="shared" si="4"/>
+        <v>7.2677400119260582</v>
+      </c>
+      <c r="N19" s="25">
+        <f t="shared" si="6"/>
+        <v>1.8902802623732853</v>
+      </c>
+      <c r="O19" s="25">
+        <f t="shared" si="7"/>
+        <v>5.3774597495527727</v>
+      </c>
+      <c r="P19" s="18"/>
+      <c r="R19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O19" t="s">
-        <v>49</v>
+      <c r="T19" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>43647</v>
@@ -3537,35 +7385,57 @@
         <f t="shared" si="0"/>
         <v>2019-3</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="25">
+        <v>12.554</v>
+      </c>
+      <c r="D20" s="21">
         <v>3.81</v>
       </c>
-      <c r="D20" s="23">
+      <c r="E20" s="21">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="E20" s="23">
+      <c r="F20" s="21">
         <v>-0.58499999999999996</v>
       </c>
-      <c r="F20" s="23">
+      <c r="G20" s="21">
         <v>-1.1060000000000001</v>
       </c>
-      <c r="H20">
+      <c r="I20" s="23">
         <v>1.77</v>
       </c>
-      <c r="I20" s="26">
-        <f>2895/12554</f>
-        <v>0.23060379162020073</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24"/>
-      <c r="N20" s="3" t="s">
+      <c r="J20" s="20">
+        <f t="shared" si="9"/>
+        <v>0.30348892783176679</v>
+      </c>
+      <c r="K20" s="30">
+        <f t="shared" si="5"/>
+        <v>0.30348892783176679</v>
+      </c>
+      <c r="L20" s="30">
+        <f t="shared" si="3"/>
+        <v>0.69651107216823316</v>
+      </c>
+      <c r="M20" s="25">
+        <f t="shared" si="4"/>
+        <v>7.0926553672316386</v>
+      </c>
+      <c r="N20" s="25">
+        <f t="shared" si="6"/>
+        <v>2.152542372881356</v>
+      </c>
+      <c r="O20" s="25">
+        <f t="shared" si="7"/>
+        <v>4.9401129943502822</v>
+      </c>
+      <c r="P20" s="18"/>
+      <c r="S20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O20" t="s">
+      <c r="T20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>43739</v>
@@ -3574,40 +7444,62 @@
         <f t="shared" si="0"/>
         <v>2019-4</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="25">
+        <v>13.512</v>
+      </c>
+      <c r="D21" s="21">
         <v>4.04</v>
       </c>
-      <c r="D21" s="23">
+      <c r="E21" s="21">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E21" s="23">
+      <c r="F21" s="21">
         <v>-0.61499999999999999</v>
       </c>
-      <c r="F21" s="23">
+      <c r="G21" s="21">
         <v>-0.97099999999999997</v>
       </c>
-      <c r="H21">
+      <c r="I21" s="23">
         <v>1.907</v>
       </c>
-      <c r="I21" s="26">
-        <f>3056/13512</f>
-        <v>0.22616933096506808</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25">
+      <c r="J21" s="20">
+        <f t="shared" si="9"/>
+        <v>0.29899348727057429</v>
+      </c>
+      <c r="K21" s="30">
+        <f t="shared" si="5"/>
+        <v>0.29899348727057429</v>
+      </c>
+      <c r="L21" s="30">
+        <f t="shared" si="3"/>
+        <v>0.70100651272942582</v>
+      </c>
+      <c r="M21" s="25">
+        <f t="shared" si="4"/>
+        <v>7.0854745673833248</v>
+      </c>
+      <c r="N21" s="25">
+        <f t="shared" si="6"/>
+        <v>2.118510749868904</v>
+      </c>
+      <c r="O21" s="25">
+        <f t="shared" si="7"/>
+        <v>4.9669638175144213</v>
+      </c>
+      <c r="P21" s="19">
         <v>2003</v>
       </c>
-      <c r="L21">
+      <c r="Q21">
         <v>0.125</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O21" t="s">
+      <c r="T21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>43831</v>
@@ -3616,37 +7508,56 @@
         <f t="shared" si="0"/>
         <v>2020-1</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="25">
+        <v>10.874000000000001</v>
+      </c>
+      <c r="D22" s="21">
         <v>2.4670000000000001</v>
       </c>
-      <c r="D22" s="23">
+      <c r="E22" s="21">
         <v>-2.9359999999999999</v>
       </c>
-      <c r="E22" s="23">
+      <c r="F22" s="21">
         <v>-0.61199999999999999</v>
       </c>
-      <c r="F22" s="23">
+      <c r="G22" s="21">
         <v>-1.2629999999999999</v>
       </c>
-      <c r="H22">
+      <c r="I22" s="23">
         <v>1.6579999999999999</v>
       </c>
-      <c r="I22" s="26">
-        <f>2467/10874</f>
+      <c r="J22" s="20">
+        <f t="shared" ref="J22:J34" si="10">D22/C22</f>
         <v>0.22687143645392679</v>
       </c>
-      <c r="J22" s="26">
+      <c r="K22" s="30">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="N22" s="3" t="s">
+      <c r="L22" s="30">
+        <f t="shared" si="3"/>
+        <v>0.77312856354607318</v>
+      </c>
+      <c r="M22" s="25">
+        <f t="shared" si="4"/>
+        <v>6.5585042219541627</v>
+      </c>
+      <c r="N22" s="25">
+        <f t="shared" si="6"/>
+        <v>1.4879372738238845</v>
+      </c>
+      <c r="O22" s="25">
+        <f t="shared" si="7"/>
+        <v>5.0705669481302778</v>
+      </c>
+      <c r="P22" s="18"/>
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>43922</v>
@@ -3655,37 +7566,56 @@
         <f t="shared" si="0"/>
         <v>2020-2</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="25">
+        <v>3.0459999999999998</v>
+      </c>
+      <c r="D23" s="21">
         <v>0.78700000000000003</v>
       </c>
-      <c r="D23" s="23">
+      <c r="E23" s="21">
         <v>-1.7749999999999999</v>
       </c>
-      <c r="E23" s="23">
+      <c r="F23" s="21">
         <v>-0.83699999999999997</v>
       </c>
-      <c r="F23" s="23">
+      <c r="G23" s="21">
         <v>-1.607</v>
       </c>
-      <c r="H23">
+      <c r="I23" s="23">
         <v>0.73699999999999999</v>
       </c>
-      <c r="I23" s="26">
-        <f>787/3046</f>
+      <c r="J23" s="20">
+        <f t="shared" si="10"/>
         <v>0.25837163493105714</v>
       </c>
-      <c r="J23" s="26">
+      <c r="K23" s="30">
         <v>0.25800000000000001</v>
       </c>
-      <c r="K23" s="24"/>
-      <c r="N23" s="3" t="s">
+      <c r="L23" s="30">
+        <f t="shared" si="3"/>
+        <v>0.74162836506894292</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" si="4"/>
+        <v>4.1329715061058341</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" si="6"/>
+        <v>1.0678426051560379</v>
+      </c>
+      <c r="O23" s="25">
+        <f t="shared" si="7"/>
+        <v>3.0651289009497962</v>
+      </c>
+      <c r="P23" s="18"/>
+      <c r="S23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O23" t="s">
+      <c r="T23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>44013</v>
@@ -3694,37 +7624,56 @@
         <f t="shared" si="0"/>
         <v>2020-3</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="25">
+        <v>5.9050000000000002</v>
+      </c>
+      <c r="D24" s="21">
         <v>1.3640000000000001</v>
       </c>
-      <c r="D24" s="23">
+      <c r="E24" s="21">
         <v>-1.0900000000000001</v>
       </c>
-      <c r="E24" s="23">
+      <c r="F24" s="21">
         <v>-0.625</v>
       </c>
-      <c r="F24" s="23">
+      <c r="G24" s="21">
         <v>-1.1160000000000001</v>
       </c>
-      <c r="H24">
+      <c r="I24" s="23">
         <v>1.1839999999999999</v>
       </c>
-      <c r="I24" s="26">
-        <f>1364/5905</f>
+      <c r="J24" s="20">
+        <f t="shared" si="10"/>
         <v>0.23099068585944116</v>
       </c>
-      <c r="J24" s="26">
+      <c r="K24" s="30">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K24" s="24"/>
-      <c r="N24" s="3" t="s">
+      <c r="L24" s="30">
+        <f t="shared" si="3"/>
+        <v>0.76900931414055884</v>
+      </c>
+      <c r="M24" s="25">
+        <f t="shared" si="4"/>
+        <v>4.9873310810810816</v>
+      </c>
+      <c r="N24" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1520270270270272</v>
+      </c>
+      <c r="O24" s="25">
+        <f t="shared" si="7"/>
+        <v>3.8353040540540544</v>
+      </c>
+      <c r="P24" s="18"/>
+      <c r="S24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O24" t="s">
+      <c r="T24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44105</v>
       </c>
@@ -3732,42 +7681,61 @@
         <f t="shared" si="0"/>
         <v>2020-4</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="25">
+        <v>6.7889999999999997</v>
+      </c>
+      <c r="D25" s="21">
         <v>1.4710000000000001</v>
       </c>
-      <c r="D25" s="23">
+      <c r="E25" s="21">
         <v>-0.96799999999999997</v>
       </c>
-      <c r="E25" s="23">
+      <c r="F25" s="21">
         <v>-0.45400000000000001</v>
       </c>
-      <c r="F25" s="23">
+      <c r="G25" s="21">
         <v>-0.877</v>
       </c>
-      <c r="H25">
+      <c r="I25" s="23">
         <v>1.4430000000000001</v>
       </c>
-      <c r="I25" s="26">
-        <f>1.471/6.789</f>
+      <c r="J25" s="20">
+        <f t="shared" si="10"/>
         <v>0.21667403152157905</v>
       </c>
-      <c r="J25" s="26">
+      <c r="K25" s="30">
         <v>0.217</v>
       </c>
-      <c r="K25" s="25">
+      <c r="L25" s="30">
+        <f t="shared" si="3"/>
+        <v>0.78332596847842095</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" si="4"/>
+        <v>4.7047817047817047</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" si="6"/>
+        <v>1.0194040194040195</v>
+      </c>
+      <c r="O25" s="25">
+        <f t="shared" si="7"/>
+        <v>3.6853776853776852</v>
+      </c>
+      <c r="P25" s="19">
         <v>2004</v>
       </c>
-      <c r="L25">
+      <c r="Q25">
         <v>0.58799999999999997</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O25" t="s">
+      <c r="T25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44197</v>
       </c>
@@ -3775,40 +7743,59 @@
         <f t="shared" si="0"/>
         <v>2021-1</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="25">
+        <v>6.7729999999999997</v>
+      </c>
+      <c r="D26" s="21">
         <v>0.85299999999999998</v>
       </c>
-      <c r="D26" s="23">
+      <c r="E26" s="21">
         <v>-0.108</v>
       </c>
-      <c r="E26" s="23">
+      <c r="F26" s="21">
         <v>-0.35899999999999999</v>
       </c>
-      <c r="F26" s="23">
+      <c r="G26" s="21">
         <v>-1.524</v>
       </c>
-      <c r="H26">
+      <c r="I26" s="23">
         <v>1.4470000000000001</v>
       </c>
-      <c r="I26" s="26">
-        <f>853/6773</f>
+      <c r="J26" s="20">
+        <f t="shared" si="10"/>
         <v>0.12594123726561346</v>
       </c>
-      <c r="J26" s="26">
+      <c r="K26" s="30">
         <v>0.126</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="M26" s="14" t="s">
+      <c r="L26" s="30">
+        <f t="shared" si="3"/>
+        <v>0.87405876273438654</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="4"/>
+        <v>4.6807187284035932</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" si="6"/>
+        <v>0.5894955079474774</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" si="7"/>
+        <v>4.0912232204561159</v>
+      </c>
+      <c r="P26" s="18"/>
+      <c r="R26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O26" t="s">
+      <c r="T26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44287</v>
       </c>
@@ -3816,40 +7803,59 @@
         <f t="shared" si="0"/>
         <v>2021-2</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="25">
+        <v>8.64</v>
+      </c>
+      <c r="D27" s="21">
         <v>1.6180000000000001</v>
       </c>
-      <c r="D27" s="23">
+      <c r="E27" s="21">
         <v>1.1439999999999999</v>
       </c>
-      <c r="E27" s="23">
+      <c r="F27" s="21">
         <v>-0.50900000000000001</v>
       </c>
-      <c r="F27" s="23">
+      <c r="G27" s="21">
         <v>-1.1879999999999999</v>
       </c>
-      <c r="H27">
+      <c r="I27" s="23">
         <v>1.5109999999999999</v>
       </c>
-      <c r="I27" s="26">
-        <f>1618/8640</f>
+      <c r="J27" s="20">
+        <f t="shared" si="10"/>
         <v>0.18726851851851853</v>
       </c>
-      <c r="J27" s="26">
+      <c r="K27" s="30">
         <v>0.187</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="M27" t="s">
+      <c r="L27" s="30">
+        <f t="shared" si="3"/>
+        <v>0.81273148148148144</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" si="4"/>
+        <v>5.7180675049636012</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" si="6"/>
+        <v>1.0708140304434153</v>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" si="7"/>
+        <v>4.6472534745201859</v>
+      </c>
+      <c r="P27" s="18"/>
+      <c r="R27" t="s">
         <v>39</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O27" t="s">
+      <c r="T27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44378</v>
       </c>
@@ -3857,40 +7863,59 @@
         <f t="shared" si="0"/>
         <v>2021-3</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="25">
+        <v>9.8829999999999991</v>
+      </c>
+      <c r="D28" s="21">
         <v>2.2050000000000001</v>
       </c>
-      <c r="D28" s="23">
+      <c r="E28" s="21">
         <v>-2.4</v>
       </c>
-      <c r="E28" s="23">
+      <c r="F28" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F28" s="23">
+      <c r="G28" s="21">
         <v>-0.57199999999999995</v>
       </c>
-      <c r="H28">
+      <c r="I28" s="23">
         <v>1.641</v>
       </c>
-      <c r="I28" s="26">
-        <f>2205/9883</f>
-        <v>0.22311039158150359</v>
-      </c>
-      <c r="J28" s="26">
+      <c r="J28" s="20">
+        <f t="shared" si="10"/>
+        <v>0.22311039158150361</v>
+      </c>
+      <c r="K28" s="30">
         <v>0.223</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="M28" t="s">
+      <c r="L28" s="30">
+        <f t="shared" si="3"/>
+        <v>0.77688960841849641</v>
+      </c>
+      <c r="M28" s="25">
+        <f t="shared" si="4"/>
+        <v>6.0225472273004259</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" si="6"/>
+        <v>1.3436928702010968</v>
+      </c>
+      <c r="O28" s="25">
+        <f t="shared" si="7"/>
+        <v>4.6788543570993291</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="R28" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44470</v>
       </c>
@@ -3898,42 +7923,61 @@
         <f t="shared" si="0"/>
         <v>2021-4</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="25">
+        <v>11.34</v>
+      </c>
+      <c r="D29" s="21">
         <v>2.278</v>
       </c>
-      <c r="D29" s="23">
+      <c r="E29" s="21">
         <v>0.89</v>
       </c>
-      <c r="E29" s="23">
+      <c r="F29" s="21">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="F29" s="23">
+      <c r="G29" s="21">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="H29">
+      <c r="I29" s="23">
         <v>1.77</v>
       </c>
-      <c r="I29" s="26">
-        <f>2.278/11.34</f>
+      <c r="J29" s="20">
+        <f t="shared" si="10"/>
         <v>0.20088183421516756</v>
       </c>
-      <c r="J29" s="26">
+      <c r="K29" s="30">
         <v>0.20100000000000001</v>
       </c>
-      <c r="K29" s="25">
+      <c r="L29" s="30">
+        <f t="shared" si="3"/>
+        <v>0.79911816578483241</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" si="4"/>
+        <v>6.406779661016949</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" si="6"/>
+        <v>1.2870056497175142</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" si="7"/>
+        <v>5.1197740112994348</v>
+      </c>
+      <c r="P29" s="19">
         <v>2005</v>
       </c>
-      <c r="L29">
+      <c r="Q29">
         <v>0.35899999999999999</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O29" t="s">
+      <c r="T29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44562</v>
       </c>
@@ -3941,36 +7985,55 @@
         <f t="shared" si="0"/>
         <v>2022-1</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="25">
+        <v>10.723000000000001</v>
+      </c>
+      <c r="D30" s="21">
         <v>2.52</v>
       </c>
-      <c r="D30" s="23">
+      <c r="E30" s="21">
         <v>-5.9</v>
       </c>
-      <c r="E30" s="23">
+      <c r="F30" s="21">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F30" s="23">
+      <c r="G30" s="21">
         <v>-0.48199999999999998</v>
       </c>
-      <c r="H30">
+      <c r="I30" s="23">
         <v>1.72</v>
       </c>
-      <c r="I30" s="26">
-        <f>2518/10723</f>
-        <v>0.23482234449314557</v>
-      </c>
-      <c r="J30" s="26">
+      <c r="J30" s="20">
+        <f t="shared" si="10"/>
+        <v>0.23500885946097172</v>
+      </c>
+      <c r="K30" s="30">
         <v>0.23499999999999999</v>
       </c>
-      <c r="N30" t="s">
+      <c r="L30" s="30">
+        <f t="shared" si="3"/>
+        <v>0.76499114053902828</v>
+      </c>
+      <c r="M30" s="25">
+        <f t="shared" si="4"/>
+        <v>6.2343023255813961</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" si="6"/>
+        <v>1.4651162790697674</v>
+      </c>
+      <c r="O30" s="25">
+        <f t="shared" si="7"/>
+        <v>4.7691860465116287</v>
+      </c>
+      <c r="S30" t="s">
         <v>52</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44652</v>
       </c>
@@ -3978,33 +8041,52 @@
         <f t="shared" si="0"/>
         <v>2022-2</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="25">
+        <v>13.364000000000001</v>
+      </c>
+      <c r="D31" s="21">
         <v>3.5529999999999999</v>
       </c>
-      <c r="D31" s="23">
+      <c r="E31" s="21">
         <v>-2.601</v>
       </c>
-      <c r="E31" s="23">
+      <c r="F31" s="21">
         <v>0.36399999999999999</v>
       </c>
-      <c r="F31" s="23">
+      <c r="G31" s="21">
         <v>-0.71299999999999997</v>
       </c>
-      <c r="H31">
+      <c r="I31" s="23">
         <v>1.8720000000000001</v>
       </c>
-      <c r="I31" s="26">
-        <f>3553/13364</f>
+      <c r="J31" s="20">
+        <f t="shared" si="10"/>
         <v>0.26586351391798863</v>
       </c>
-      <c r="J31" s="26">
+      <c r="K31" s="30">
         <v>0.26600000000000001</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>65</v>
+      <c r="L31" s="30">
+        <f t="shared" si="3"/>
+        <v>0.73413648608201132</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" si="4"/>
+        <v>7.1388888888888893</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" si="6"/>
+        <v>1.8979700854700856</v>
+      </c>
+      <c r="O31" s="25">
+        <f t="shared" si="7"/>
+        <v>5.2409188034188032</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44743</v>
       </c>
@@ -4012,8 +8094,52 @@
         <f t="shared" si="0"/>
         <v>2022-3</v>
       </c>
+      <c r="C32" s="25">
+        <v>13.683999999999999</v>
+      </c>
+      <c r="D32" s="21">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="E32" s="21">
+        <v>-1.206</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G32" s="21">
+        <v>-0.495</v>
+      </c>
+      <c r="I32" s="23">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="J32" s="20">
+        <f t="shared" si="10"/>
+        <v>0.27930429698918446</v>
+      </c>
+      <c r="K32" s="31">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L32" s="30">
+        <f t="shared" si="3"/>
+        <v>0.72069570301081542</v>
+      </c>
+      <c r="M32" s="25">
+        <f t="shared" si="4"/>
+        <v>7.006656426011264</v>
+      </c>
+      <c r="N32" s="25">
+        <f t="shared" si="6"/>
+        <v>1.9569892473118278</v>
+      </c>
+      <c r="O32" s="25">
+        <f t="shared" si="7"/>
+        <v>5.0496671786994352</v>
+      </c>
+      <c r="T32" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44835</v>
       </c>
@@ -4021,39 +8147,526 @@
         <f t="shared" si="0"/>
         <v>2022-4</v>
       </c>
+      <c r="C33" s="25">
+        <v>14.894</v>
+      </c>
+      <c r="D33" s="21">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="E33" s="21">
+        <v>-9.141</v>
+      </c>
+      <c r="F33" s="21">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="G33" s="21">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="I33" s="23">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="J33" s="20">
+        <f t="shared" si="10"/>
+        <v>0.2776957163958641</v>
+      </c>
+      <c r="K33" s="31">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L33" s="30">
+        <f t="shared" si="3"/>
+        <v>0.72230428360413579</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="4"/>
+        <v>7.0788973384030411</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" si="6"/>
+        <v>1.9657794676806082</v>
+      </c>
+      <c r="O33" s="25">
+        <f t="shared" si="7"/>
+        <v>5.1131178707224318</v>
+      </c>
+      <c r="T33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-1</v>
+      </c>
+      <c r="C34" s="25">
+        <v>14.981</v>
+      </c>
+      <c r="D34" s="21">
+        <v>4.33</v>
+      </c>
+      <c r="E34" s="21">
+        <v>-0.157</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="G34" s="21">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="I34" s="23">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="J34" s="20">
+        <f t="shared" si="10"/>
+        <v>0.28903277484814099</v>
+      </c>
+      <c r="K34" s="30">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="L34" s="30">
+        <f t="shared" si="3"/>
+        <v>0.71096722515185906</v>
+      </c>
+      <c r="M34" s="25">
+        <f t="shared" si="4"/>
+        <v>7.0532015065913365</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" si="6"/>
+        <v>2.0386064030131825</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" si="7"/>
+        <v>5.014595103578154</v>
+      </c>
+      <c r="T34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-2</v>
+      </c>
+      <c r="C35" s="25">
+        <v>16.728000000000002</v>
+      </c>
+      <c r="D35" s="21">
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="I35" s="23">
+        <v>2.282</v>
+      </c>
+      <c r="J35" s="20">
+        <f t="shared" ref="J35:J41" si="11">D35/C35</f>
+        <v>0.29256336681013867</v>
+      </c>
+      <c r="K35" s="30">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="L35" s="30">
+        <f t="shared" si="3"/>
+        <v>0.70743663318986127</v>
+      </c>
+      <c r="M35" s="25">
+        <f t="shared" si="4"/>
+        <v>7.3304119193689754</v>
+      </c>
+      <c r="N35" s="25">
+        <f t="shared" si="6"/>
+        <v>2.1446099912357584</v>
+      </c>
+      <c r="O35" s="25">
+        <f t="shared" si="7"/>
+        <v>5.1858019281332171</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-3</v>
+      </c>
+      <c r="C36" s="25">
+        <v>17.902999999999999</v>
+      </c>
+      <c r="D36" s="21">
+        <v>5.0709999999999997</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0.221</v>
+      </c>
+      <c r="F36" s="21">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="I36" s="27">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="J36" s="20">
+        <f t="shared" si="11"/>
+        <v>0.28324861755013125</v>
+      </c>
+      <c r="K36" s="31">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L36" s="30">
+        <f t="shared" si="3"/>
+        <v>0.71675138244986869</v>
+      </c>
+      <c r="M36" s="25">
+        <f t="shared" si="4"/>
+        <v>7.3342892257271606</v>
+      </c>
+      <c r="N36" s="25">
+        <f t="shared" si="6"/>
+        <v>2.0774272839000409</v>
+      </c>
+      <c r="O36" s="25">
+        <f t="shared" si="7"/>
+        <v>5.2568619418271192</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2023-4</v>
+      </c>
+      <c r="C37" s="25">
+        <v>19.285</v>
+      </c>
+      <c r="D37" s="21">
+        <v>5.5369999999999999</v>
+      </c>
+      <c r="E37" s="21">
+        <v>1.429</v>
+      </c>
+      <c r="F37" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="G37" s="21">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="I37" s="23">
+        <v>2.601</v>
+      </c>
+      <c r="J37" s="20">
+        <f t="shared" si="11"/>
+        <v>0.28711433756805804</v>
+      </c>
+      <c r="K37" s="30">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="L37" s="30">
+        <f t="shared" si="3"/>
+        <v>0.71288566243194196</v>
+      </c>
+      <c r="M37" s="25">
+        <f t="shared" si="4"/>
+        <v>7.4144559784698192</v>
+      </c>
+      <c r="N37" s="25">
+        <f t="shared" si="6"/>
+        <v>2.1287966166858898</v>
+      </c>
+      <c r="O37" s="25">
+        <f t="shared" si="7"/>
+        <v>5.2856593617839298</v>
+      </c>
+      <c r="T37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-1</v>
+      </c>
+      <c r="C38" s="25">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="D38" s="21">
+        <v>5.633</v>
+      </c>
+      <c r="E38" s="21">
+        <v>-0.65400000000000003</v>
+      </c>
+      <c r="F38" s="21">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I38" s="23">
+        <v>2.5720000000000001</v>
+      </c>
+      <c r="J38" s="20">
+        <f t="shared" si="11"/>
+        <v>0.30171397964649166</v>
+      </c>
+      <c r="K38" s="31">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="L38" s="30">
+        <f t="shared" si="3"/>
+        <v>0.6982860203535084</v>
+      </c>
+      <c r="M38" s="25">
+        <f t="shared" si="4"/>
+        <v>7.2589424572317265</v>
+      </c>
+      <c r="N38" s="25">
+        <f t="shared" si="6"/>
+        <v>2.1901244167962672</v>
+      </c>
+      <c r="O38" s="25">
+        <f t="shared" si="7"/>
+        <v>5.0688180404354597</v>
+      </c>
+      <c r="T38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-2</v>
+      </c>
+      <c r="C39" s="25">
+        <v>20.55</v>
+      </c>
+      <c r="D39" s="21">
+        <v>6.13</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F39" s="21">
+        <v>1.57</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="I39" s="23">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="J39" s="20">
+        <f t="shared" si="11"/>
+        <v>0.29829683698296833</v>
+      </c>
+      <c r="K39" s="31">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="L39" s="30">
+        <f t="shared" si="3"/>
+        <v>0.70170316301703173</v>
+      </c>
+      <c r="M39" s="25">
+        <f t="shared" ref="M39:M41" si="12">C39/I39</f>
+        <v>7.4321880650994574</v>
+      </c>
+      <c r="N39" s="25">
+        <f t="shared" ref="N39:N41" si="13">J39*M39</f>
+        <v>2.2169981916817356</v>
+      </c>
+      <c r="O39" s="25">
+        <f t="shared" ref="O39:O41" si="14">L39*M39</f>
+        <v>5.2151898734177218</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-3</v>
+      </c>
+      <c r="C40" s="25">
+        <v>21.001999999999999</v>
+      </c>
+      <c r="D40" s="21">
+        <v>6.4089999999999998</v>
+      </c>
+      <c r="E40" s="21">
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="F40" s="21">
+        <v>1.69</v>
+      </c>
+      <c r="G40" s="21">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="I40" s="23">
+        <v>2.9</v>
+      </c>
+      <c r="J40" s="20">
+        <f t="shared" si="11"/>
+        <v>0.30516141319874296</v>
+      </c>
+      <c r="K40" s="31">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="L40" s="30">
+        <f t="shared" si="3"/>
+        <v>0.6948385868012571</v>
+      </c>
+      <c r="M40" s="25">
+        <f t="shared" si="12"/>
+        <v>7.242068965517241</v>
+      </c>
+      <c r="N40" s="25">
+        <f t="shared" si="13"/>
+        <v>2.21</v>
+      </c>
+      <c r="O40" s="25">
+        <f t="shared" si="14"/>
+        <v>5.0320689655172419</v>
+      </c>
+      <c r="T40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-4</v>
+      </c>
+      <c r="C41" s="25">
+        <v>22.797999999999998</v>
+      </c>
+      <c r="D41" s="21">
+        <v>6.9109999999999996</v>
+      </c>
+      <c r="E41" s="21">
+        <v>6.883</v>
+      </c>
+      <c r="F41" s="21">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="G41" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="I41" s="23">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="J41" s="20">
+        <f t="shared" si="11"/>
+        <v>0.3031406263707343</v>
+      </c>
+      <c r="K41" s="31">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="L41" s="30">
+        <f t="shared" si="3"/>
+        <v>0.69685937362926575</v>
+      </c>
+      <c r="M41" s="25">
+        <f t="shared" si="12"/>
+        <v>7.43089960886571</v>
+      </c>
+      <c r="N41" s="25">
+        <f t="shared" si="13"/>
+        <v>2.252607561929596</v>
+      </c>
+      <c r="O41" s="25">
+        <f t="shared" si="14"/>
+        <v>5.1782920469361144</v>
+      </c>
+      <c r="T41" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N12" r:id="rId1" xr:uid="{310AC28A-E6DF-4C35-B64F-A40CC1F4B549}"/>
-    <hyperlink ref="N13" r:id="rId2" xr:uid="{284AA07B-EEE3-41B3-88B3-23DB3B0CDCE6}"/>
-    <hyperlink ref="N11" r:id="rId3" xr:uid="{D83B75E8-5302-43D8-BEAF-3C61EFB7E132}"/>
-    <hyperlink ref="N10" r:id="rId4" xr:uid="{04EA2F9F-B731-461A-9C7A-762EFF61584C}"/>
-    <hyperlink ref="N27" r:id="rId5" xr:uid="{62FBFDE2-4EAA-4686-B22E-F3D590465C90}"/>
-    <hyperlink ref="N28" r:id="rId6" xr:uid="{F057F62D-9546-406F-ACA6-6975030D6DD4}"/>
-    <hyperlink ref="N14" r:id="rId7" xr:uid="{113F7453-9A62-4689-A913-CC4CDE460DD3}"/>
-    <hyperlink ref="N15" r:id="rId8" xr:uid="{F4A87CDF-CBF1-4EDF-B4FB-D20DE917B537}"/>
-    <hyperlink ref="N16" r:id="rId9" xr:uid="{79D888BA-CFD2-4103-AAE1-64B15369E9EB}"/>
-    <hyperlink ref="N17" r:id="rId10" xr:uid="{9EC24FEF-A02D-4732-A625-4E17F21A1F39}"/>
-    <hyperlink ref="N18" r:id="rId11" xr:uid="{D5F0C24B-06EF-4044-AD24-01F2FCAEA016}"/>
-    <hyperlink ref="N19" r:id="rId12" xr:uid="{2C0D21DB-42A5-46DF-A581-837D1DFDF2A6}"/>
-    <hyperlink ref="N20" r:id="rId13" xr:uid="{DA4A7E69-C2DB-4267-BB33-13B4073C6C7F}"/>
-    <hyperlink ref="N21" r:id="rId14" xr:uid="{C85F4ABC-10AA-48B2-98C2-19794A25ED5C}"/>
-    <hyperlink ref="N22" r:id="rId15" xr:uid="{91F83EAD-64ED-465A-9C24-BA28E97E1B6E}"/>
-    <hyperlink ref="N23" r:id="rId16" xr:uid="{855A1B9F-E858-417D-9CAC-ADAF269B9EF6}"/>
-    <hyperlink ref="N24" r:id="rId17" xr:uid="{A56D5E93-6AA5-4E87-919F-4FED3EAF20BA}"/>
-    <hyperlink ref="N25" r:id="rId18" xr:uid="{A5F0C4D5-B5AB-4C44-90CA-2F8118A4A953}"/>
-    <hyperlink ref="N26" r:id="rId19" xr:uid="{757DB89D-456E-4553-BF88-440865D84FEF}"/>
-    <hyperlink ref="N29" r:id="rId20" xr:uid="{B79A578C-9558-49CA-9095-698179928FCB}"/>
-    <hyperlink ref="O30" r:id="rId21" xr:uid="{C705DCCF-249A-49FC-A1B0-052F4469FFE9}"/>
-    <hyperlink ref="O22" r:id="rId22" xr:uid="{9DDCE714-50C1-4F1F-80A8-95D19971AAA5}"/>
-    <hyperlink ref="O31" r:id="rId23" xr:uid="{75AD9778-FABD-4C70-A8A8-C8FFA47D8D2A}"/>
+    <hyperlink ref="S12" r:id="rId1" xr:uid="{310AC28A-E6DF-4C35-B64F-A40CC1F4B549}"/>
+    <hyperlink ref="S13" r:id="rId2" xr:uid="{284AA07B-EEE3-41B3-88B3-23DB3B0CDCE6}"/>
+    <hyperlink ref="S11" r:id="rId3" xr:uid="{D83B75E8-5302-43D8-BEAF-3C61EFB7E132}"/>
+    <hyperlink ref="S10" r:id="rId4" xr:uid="{04EA2F9F-B731-461A-9C7A-762EFF61584C}"/>
+    <hyperlink ref="S27" r:id="rId5" xr:uid="{62FBFDE2-4EAA-4686-B22E-F3D590465C90}"/>
+    <hyperlink ref="S28" r:id="rId6" xr:uid="{F057F62D-9546-406F-ACA6-6975030D6DD4}"/>
+    <hyperlink ref="S14" r:id="rId7" xr:uid="{113F7453-9A62-4689-A913-CC4CDE460DD3}"/>
+    <hyperlink ref="S15" r:id="rId8" xr:uid="{F4A87CDF-CBF1-4EDF-B4FB-D20DE917B537}"/>
+    <hyperlink ref="S16" r:id="rId9" xr:uid="{79D888BA-CFD2-4103-AAE1-64B15369E9EB}"/>
+    <hyperlink ref="S17" r:id="rId10" xr:uid="{9EC24FEF-A02D-4732-A625-4E17F21A1F39}"/>
+    <hyperlink ref="S18" r:id="rId11" xr:uid="{D5F0C24B-06EF-4044-AD24-01F2FCAEA016}"/>
+    <hyperlink ref="S19" r:id="rId12" xr:uid="{2C0D21DB-42A5-46DF-A581-837D1DFDF2A6}"/>
+    <hyperlink ref="S20" r:id="rId13" xr:uid="{DA4A7E69-C2DB-4267-BB33-13B4073C6C7F}"/>
+    <hyperlink ref="S21" r:id="rId14" xr:uid="{C85F4ABC-10AA-48B2-98C2-19794A25ED5C}"/>
+    <hyperlink ref="S22" r:id="rId15" xr:uid="{91F83EAD-64ED-465A-9C24-BA28E97E1B6E}"/>
+    <hyperlink ref="S23" r:id="rId16" xr:uid="{855A1B9F-E858-417D-9CAC-ADAF269B9EF6}"/>
+    <hyperlink ref="S24" r:id="rId17" xr:uid="{A56D5E93-6AA5-4E87-919F-4FED3EAF20BA}"/>
+    <hyperlink ref="S25" r:id="rId18" xr:uid="{A5F0C4D5-B5AB-4C44-90CA-2F8118A4A953}"/>
+    <hyperlink ref="S26" r:id="rId19" xr:uid="{757DB89D-456E-4553-BF88-440865D84FEF}"/>
+    <hyperlink ref="S29" r:id="rId20" xr:uid="{B79A578C-9558-49CA-9095-698179928FCB}"/>
+    <hyperlink ref="T30" r:id="rId21" xr:uid="{C705DCCF-249A-49FC-A1B0-052F4469FFE9}"/>
+    <hyperlink ref="T22" r:id="rId22" xr:uid="{9DDCE714-50C1-4F1F-80A8-95D19971AAA5}"/>
+    <hyperlink ref="T31" r:id="rId23" xr:uid="{75AD9778-FABD-4C70-A8A8-C8FFA47D8D2A}"/>
+    <hyperlink ref="T35" r:id="rId24" xr:uid="{BE448FE4-97A9-4606-A220-4FA4291C8AC4}"/>
+    <hyperlink ref="T36" r:id="rId25" xr:uid="{3521901E-77F2-4CAC-A17C-115DB11FC427}"/>
+    <hyperlink ref="T39" r:id="rId26" xr:uid="{85B16E67-E687-42C5-B260-A8E9C1E58255}"/>
+    <hyperlink ref="T19" r:id="rId27" xr:uid="{F845CDD4-F119-4DF8-9FC7-C7C5155382D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId24"/>
+  <legacyDrawing r:id="rId28"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A29E1F4-C267-4D0D-9E3C-42E2FD33A5C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A860B61-F31C-48E8-9D1F-3508A5445B29}">
   <dimension ref="A2:E31"/>
   <sheetViews>
@@ -4381,4 +8994,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B0CE79-CCDC-4336-A736-ECB3079B8B05}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23">
+        <f>A2/(A2+(1-A2)*$C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <f>A2+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="23">
+        <f>A3/(A3+(1-A3)*$C$2)</f>
+        <v>0.25188916876574308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <f>A3+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="23">
+        <f t="shared" ref="B4:B12" si="0">A4/(A4+(1-A4)*$C$2)</f>
+        <v>0.43103448275862072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <f t="shared" ref="A5:A11" si="1">A4+0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B5" s="23">
+        <f t="shared" si="0"/>
+        <v>0.56497175141242939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="23">
+        <f t="shared" si="0"/>
+        <v>0.668896321070234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="23">
+        <f t="shared" si="0"/>
+        <v>0.75187969924812026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.81967213114754101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.87609511889862335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="B10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.92378752886836024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.96463022508038587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <f t="shared" ref="A12" si="2">A11+0.1</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="B12" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>